--- a/data/trans_orig/IP07C02-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07C02-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{01098932-2CE1-4EAD-A4ED-42E00DEB5CEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F381AFD-BDD0-4C52-9BB8-B91F1BC7038B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{2BDFE82A-47D4-4880-A1A2-ABA9B00CD2DB}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{F8B96B9B-A48F-4D6F-9239-7A89988BE028}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -70,27 +70,180 @@
     <t>0/4</t>
   </si>
   <si>
+    <t>Nada</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>Poco</t>
+  </si>
+  <si>
     <t>Moderadamente</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
     <t>Mucho</t>
   </si>
   <si>
     <t>Muchísimo</t>
   </si>
   <si>
-    <t>Nada</t>
-  </si>
-  <si>
-    <t>Poco</t>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>40,35%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>50,9%</t>
+  </si>
+  <si>
+    <t>39,36%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>51,42%</t>
+  </si>
+  <si>
+    <t>39,9%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>47,97%</t>
+  </si>
+  <si>
+    <t>58,46%</t>
+  </si>
+  <si>
+    <t>47,65%</t>
+  </si>
+  <si>
+    <t>69,27%</t>
+  </si>
+  <si>
+    <t>55,75%</t>
+  </si>
+  <si>
+    <t>43,6%</t>
+  </si>
+  <si>
+    <t>66,13%</t>
+  </si>
+  <si>
+    <t>57,24%</t>
+  </si>
+  <si>
+    <t>49,21%</t>
+  </si>
+  <si>
+    <t>64,78%</t>
+  </si>
+  <si>
+    <t>100%</t>
   </si>
   <si>
     <t>10/15</t>
   </si>
   <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
     <t>3,16%</t>
   </si>
   <si>
@@ -136,9 +289,6 @@
     <t>46,33%</t>
   </si>
   <si>
-    <t>39,9%</t>
-  </si>
-  <si>
     <t>36,36%</t>
   </si>
   <si>
@@ -172,154 +322,52 @@
     <t>57,82%</t>
   </si>
   <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>40,35%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>50,9%</t>
-  </si>
-  <si>
-    <t>39,36%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>51,42%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>47,97%</t>
-  </si>
-  <si>
-    <t>58,46%</t>
-  </si>
-  <si>
-    <t>47,65%</t>
-  </si>
-  <si>
-    <t>69,27%</t>
-  </si>
-  <si>
-    <t>55,75%</t>
-  </si>
-  <si>
-    <t>43,6%</t>
-  </si>
-  <si>
-    <t>66,13%</t>
-  </si>
-  <si>
-    <t>57,24%</t>
-  </si>
-  <si>
-    <t>49,21%</t>
-  </si>
-  <si>
-    <t>64,78%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
   </si>
   <si>
     <t>2,55%</t>
@@ -397,57 +445,132 @@
     <t>57,77%</t>
   </si>
   <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
     <t>Menores según frecuencia de haber podido correr bien en 2012 (Tasa respuesta: 43,69%)</t>
   </si>
   <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>49,88%</t>
+  </si>
+  <si>
+    <t>39,92%</t>
+  </si>
+  <si>
+    <t>60,39%</t>
+  </si>
+  <si>
+    <t>55,19%</t>
+  </si>
+  <si>
+    <t>45,22%</t>
+  </si>
+  <si>
+    <t>64,14%</t>
+  </si>
+  <si>
+    <t>52,58%</t>
+  </si>
+  <si>
+    <t>45,88%</t>
+  </si>
+  <si>
+    <t>60,32%</t>
+  </si>
+  <si>
+    <t>46,55%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>56,9%</t>
+  </si>
+  <si>
+    <t>40,29%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>50,26%</t>
+  </si>
+  <si>
+    <t>43,36%</t>
+  </si>
+  <si>
+    <t>35,84%</t>
+  </si>
+  <si>
+    <t>50,21%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
     <t>3,82%</t>
   </si>
   <si>
@@ -529,127 +652,37 @@
     <t>48,24%</t>
   </si>
   <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>49,88%</t>
-  </si>
-  <si>
-    <t>39,92%</t>
-  </si>
-  <si>
-    <t>60,39%</t>
-  </si>
-  <si>
-    <t>55,19%</t>
-  </si>
-  <si>
-    <t>45,22%</t>
-  </si>
-  <si>
-    <t>64,14%</t>
-  </si>
-  <si>
-    <t>52,58%</t>
-  </si>
-  <si>
-    <t>45,88%</t>
-  </si>
-  <si>
-    <t>60,32%</t>
-  </si>
-  <si>
-    <t>46,55%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>56,9%</t>
-  </si>
-  <si>
-    <t>40,29%</t>
-  </si>
-  <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>50,26%</t>
-  </si>
-  <si>
-    <t>43,36%</t>
-  </si>
-  <si>
-    <t>35,84%</t>
-  </si>
-  <si>
-    <t>50,21%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
   </si>
   <si>
     <t>3,77%</t>
@@ -733,42 +766,147 @@
     <t>47,54%</t>
   </si>
   <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
     <t>Menores según frecuencia de haber podido correr bien en 2015 (Tasa respuesta: 45,72%)</t>
   </si>
   <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>42,08%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>40,99%</t>
+  </si>
+  <si>
+    <t>32,21%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>38,48%</t>
+  </si>
+  <si>
+    <t>61,35%</t>
+  </si>
+  <si>
+    <t>51,27%</t>
+  </si>
+  <si>
+    <t>69,85%</t>
+  </si>
+  <si>
+    <t>64,71%</t>
+  </si>
+  <si>
+    <t>55,88%</t>
+  </si>
+  <si>
+    <t>72,75%</t>
+  </si>
+  <si>
+    <t>63,14%</t>
+  </si>
+  <si>
+    <t>56,85%</t>
+  </si>
+  <si>
+    <t>69,0%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
     <t>3,72%</t>
   </si>
   <si>
@@ -844,142 +982,34 @@
     <t>64,76%</t>
   </si>
   <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>42,08%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>40,99%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>61,35%</t>
-  </si>
-  <si>
-    <t>51,27%</t>
-  </si>
-  <si>
-    <t>69,85%</t>
-  </si>
-  <si>
-    <t>64,71%</t>
-  </si>
-  <si>
-    <t>55,88%</t>
-  </si>
-  <si>
-    <t>72,75%</t>
-  </si>
-  <si>
-    <t>63,14%</t>
-  </si>
-  <si>
-    <t>56,85%</t>
-  </si>
-  <si>
-    <t>69,0%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
   </si>
   <si>
     <t>3,91%</t>
@@ -1061,36 +1091,6 @@
   </si>
   <si>
     <t>64,51%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
   </si>
 </sst>
 </file>
@@ -1482,7 +1482,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6F1A337-99CD-4A0F-B3CF-A32388819B4D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC8053F2-D2B2-43BB-85C9-4912B664CEFD}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1872,10 +1872,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>7895</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>17</v>
@@ -1887,34 +1887,34 @@
         <v>19</v>
       </c>
       <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="7">
-        <v>11860</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>0</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M10" s="7">
-        <v>29</v>
-      </c>
-      <c r="N10" s="7">
-        <v>19755</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1923,49 +1923,49 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>143</v>
+        <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>96574</v>
+        <v>700</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="7">
+        <v>2</v>
+      </c>
+      <c r="I11" s="7">
+        <v>1169</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M11" s="7">
+        <v>3</v>
+      </c>
+      <c r="N11" s="7">
+        <v>1869</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="H11" s="7">
-        <v>148</v>
-      </c>
-      <c r="I11" s="7">
-        <v>99667</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="M11" s="7">
-        <v>291</v>
-      </c>
-      <c r="N11" s="7">
-        <v>196242</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1974,49 +1974,49 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>212</v>
+        <v>0</v>
       </c>
       <c r="D12" s="7">
-        <v>140360</v>
+        <v>0</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>189</v>
+        <v>2</v>
       </c>
       <c r="I12" s="7">
-        <v>126778</v>
+        <v>1223</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>401</v>
+        <v>2</v>
       </c>
       <c r="N12" s="7">
-        <v>267139</v>
+        <v>1223</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2025,49 +2025,49 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="D13" s="7">
-        <v>2582</v>
+        <v>23834</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>19238</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="M13" s="7">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="N13" s="7">
-        <v>2582</v>
+        <v>43073</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2076,49 +2076,49 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="D14" s="7">
-        <v>2614</v>
+        <v>34534</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="H14" s="7">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="I14" s="7">
-        <v>3458</v>
+        <v>27252</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="M14" s="7">
-        <v>9</v>
+        <v>94</v>
       </c>
       <c r="N14" s="7">
-        <v>6073</v>
+        <v>61786</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2127,102 +2127,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>375</v>
+        <v>90</v>
       </c>
       <c r="D15" s="7">
-        <v>250026</v>
+        <v>59069</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="H15" s="7">
-        <v>359</v>
+        <v>73</v>
       </c>
       <c r="I15" s="7">
-        <v>241764</v>
+        <v>48882</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="M15" s="7">
-        <v>734</v>
+        <v>163</v>
       </c>
       <c r="N15" s="7">
-        <v>491790</v>
+        <v>107951</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>2582</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="H16" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>1223</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="M16" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N16" s="7">
-        <v>1223</v>
+        <v>2582</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2231,49 +2231,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="D17" s="7">
-        <v>23834</v>
+        <v>2614</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="H17" s="7">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="I17" s="7">
-        <v>19238</v>
+        <v>3458</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="M17" s="7">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="N17" s="7">
-        <v>43073</v>
+        <v>6073</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2282,49 +2282,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D18" s="7">
-        <v>34534</v>
+        <v>7895</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H18" s="7">
+        <v>17</v>
+      </c>
+      <c r="I18" s="7">
+        <v>11860</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="M18" s="7">
+        <v>29</v>
+      </c>
+      <c r="N18" s="7">
+        <v>19755</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="H18" s="7">
-        <v>40</v>
-      </c>
-      <c r="I18" s="7">
-        <v>27252</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="M18" s="7">
-        <v>94</v>
-      </c>
-      <c r="N18" s="7">
-        <v>61786</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2333,49 +2333,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>143</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>96574</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="H19" s="7">
-        <v>0</v>
+        <v>148</v>
       </c>
       <c r="I19" s="7">
-        <v>0</v>
+        <v>99667</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="M19" s="7">
-        <v>0</v>
+        <v>291</v>
       </c>
       <c r="N19" s="7">
-        <v>0</v>
+        <v>196242</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2384,40 +2384,40 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>1</v>
+        <v>212</v>
       </c>
       <c r="D20" s="7">
-        <v>700</v>
+        <v>140360</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>189</v>
+      </c>
+      <c r="I20" s="7">
+        <v>126778</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="H20" s="7">
-        <v>2</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1169</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>90</v>
       </c>
       <c r="M20" s="7">
-        <v>3</v>
+        <v>401</v>
       </c>
       <c r="N20" s="7">
-        <v>1869</v>
+        <v>267139</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>91</v>
@@ -2435,49 +2435,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>90</v>
+        <v>375</v>
       </c>
       <c r="D21" s="7">
-        <v>59069</v>
+        <v>250026</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="H21" s="7">
-        <v>73</v>
+        <v>359</v>
       </c>
       <c r="I21" s="7">
-        <v>48882</v>
+        <v>241764</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="M21" s="7">
-        <v>163</v>
+        <v>734</v>
       </c>
       <c r="N21" s="7">
-        <v>107951</v>
+        <v>491790</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2488,10 +2488,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D22" s="7">
-        <v>7895</v>
+        <v>2582</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>94</v>
@@ -2503,34 +2503,34 @@
         <v>96</v>
       </c>
       <c r="H22" s="7">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="I22" s="7">
-        <v>13083</v>
+        <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>4</v>
+      </c>
+      <c r="N22" s="7">
+        <v>2582</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="M22" s="7">
-        <v>31</v>
-      </c>
-      <c r="N22" s="7">
-        <v>20978</v>
-      </c>
-      <c r="O22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2539,43 +2539,43 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>178</v>
+        <v>5</v>
       </c>
       <c r="D23" s="7">
-        <v>120408</v>
+        <v>3315</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="H23" s="7">
+        <v>7</v>
+      </c>
+      <c r="I23" s="7">
+        <v>4627</v>
+      </c>
+      <c r="J23" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="H23" s="7">
-        <v>177</v>
-      </c>
-      <c r="I23" s="7">
-        <v>118906</v>
-      </c>
-      <c r="J23" s="7" t="s">
+      <c r="K23" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="L23" s="7" t="s">
+      <c r="M23" s="7">
+        <v>12</v>
+      </c>
+      <c r="N23" s="7">
+        <v>7942</v>
+      </c>
+      <c r="O23" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="M23" s="7">
-        <v>355</v>
-      </c>
-      <c r="N23" s="7">
-        <v>239314</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>108</v>
@@ -2590,10 +2590,10 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>266</v>
+        <v>12</v>
       </c>
       <c r="D24" s="7">
-        <v>174895</v>
+        <v>7895</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>110</v>
@@ -2605,10 +2605,10 @@
         <v>112</v>
       </c>
       <c r="H24" s="7">
-        <v>229</v>
+        <v>19</v>
       </c>
       <c r="I24" s="7">
-        <v>154030</v>
+        <v>13083</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>113</v>
@@ -2620,19 +2620,19 @@
         <v>115</v>
       </c>
       <c r="M24" s="7">
-        <v>495</v>
+        <v>31</v>
       </c>
       <c r="N24" s="7">
-        <v>328925</v>
+        <v>20978</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>116</v>
       </c>
       <c r="P24" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2641,43 +2641,43 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>4</v>
+        <v>178</v>
       </c>
       <c r="D25" s="7">
-        <v>2582</v>
+        <v>120408</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="H25" s="7">
+        <v>177</v>
+      </c>
+      <c r="I25" s="7">
+        <v>118906</v>
+      </c>
+      <c r="J25" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="H25" s="7">
-        <v>0</v>
-      </c>
-      <c r="I25" s="7">
-        <v>0</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>47</v>
-      </c>
       <c r="K25" s="7" t="s">
-        <v>48</v>
+        <v>122</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M25" s="7">
-        <v>4</v>
+        <v>355</v>
       </c>
       <c r="N25" s="7">
-        <v>2582</v>
+        <v>239314</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>123</v>
+        <v>39</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>124</v>
@@ -2692,10 +2692,10 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>5</v>
+        <v>266</v>
       </c>
       <c r="D26" s="7">
-        <v>3315</v>
+        <v>174895</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>126</v>
@@ -2707,10 +2707,10 @@
         <v>128</v>
       </c>
       <c r="H26" s="7">
-        <v>7</v>
+        <v>229</v>
       </c>
       <c r="I26" s="7">
-        <v>4627</v>
+        <v>154030</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>129</v>
@@ -2722,10 +2722,10 @@
         <v>131</v>
       </c>
       <c r="M26" s="7">
-        <v>12</v>
+        <v>495</v>
       </c>
       <c r="N26" s="7">
-        <v>7942</v>
+        <v>328925</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>132</v>
@@ -2749,13 +2749,13 @@
         <v>309095</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="H27" s="7">
         <v>432</v>
@@ -2764,13 +2764,13 @@
         <v>290646</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="M27" s="7">
         <v>897</v>
@@ -2779,13 +2779,13 @@
         <v>599741</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -2804,7 +2804,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{595CCBEA-81FC-433D-8477-DDC352928B2D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{178E5C3A-2B74-4CF3-ACED-9B4CA823821E}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3194,49 +3194,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>9955</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>0</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="H10" s="7">
-        <v>25</v>
-      </c>
-      <c r="I10" s="7">
-        <v>18314</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="M10" s="7">
-        <v>41</v>
-      </c>
-      <c r="N10" s="7">
-        <v>28269</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3245,49 +3245,49 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>153</v>
+        <v>0</v>
       </c>
       <c r="D11" s="7">
-        <v>105728</v>
+        <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>145</v>
+        <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>146</v>
+        <v>18</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>147</v>
+        <v>96</v>
       </c>
       <c r="H11" s="7">
-        <v>188</v>
+        <v>0</v>
       </c>
       <c r="I11" s="7">
-        <v>132357</v>
+        <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>148</v>
+        <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>149</v>
+        <v>18</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="M11" s="7">
-        <v>341</v>
+        <v>0</v>
       </c>
       <c r="N11" s="7">
-        <v>238084</v>
+        <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>151</v>
+        <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>152</v>
+        <v>18</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3296,49 +3296,49 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>202</v>
+        <v>3</v>
       </c>
       <c r="D12" s="7">
-        <v>136607</v>
+        <v>2361</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>155</v>
+        <v>31</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="H12" s="7">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="I12" s="7">
-        <v>86512</v>
+        <v>3106</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>158</v>
+        <v>22</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="M12" s="7">
-        <v>326</v>
+        <v>7</v>
       </c>
       <c r="N12" s="7">
-        <v>223119</v>
+        <v>5467</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3347,49 +3347,49 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="D13" s="7">
-        <v>3492</v>
+        <v>33007</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="H13" s="7">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="I13" s="7">
-        <v>1680</v>
+        <v>37909</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="M13" s="7">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="N13" s="7">
-        <v>5172</v>
+        <v>70916</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>44</v>
+        <v>151</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3398,49 +3398,49 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="D14" s="7">
-        <v>4810</v>
+        <v>30806</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="H14" s="7">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="I14" s="7">
-        <v>3241</v>
+        <v>27678</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>49</v>
+        <v>158</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>21</v>
+        <v>159</v>
       </c>
       <c r="M14" s="7">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="N14" s="7">
-        <v>8051</v>
+        <v>58484</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3449,102 +3449,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>383</v>
+        <v>92</v>
       </c>
       <c r="D15" s="7">
-        <v>260592</v>
+        <v>66174</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="H15" s="7">
-        <v>345</v>
+        <v>97</v>
       </c>
       <c r="I15" s="7">
-        <v>242105</v>
+        <v>68693</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="M15" s="7">
-        <v>728</v>
+        <v>189</v>
       </c>
       <c r="N15" s="7">
-        <v>502696</v>
+        <v>134867</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>5</v>
+      </c>
+      <c r="D16" s="7">
+        <v>3492</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H16" s="7">
         <v>3</v>
       </c>
-      <c r="D16" s="7">
-        <v>2361</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="H16" s="7">
-        <v>4</v>
-      </c>
       <c r="I16" s="7">
-        <v>3106</v>
+        <v>1680</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>87</v>
+        <v>167</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="M16" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N16" s="7">
-        <v>5467</v>
+        <v>5172</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>181</v>
+        <v>53</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3553,49 +3553,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="D17" s="7">
-        <v>33007</v>
+        <v>4810</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="H17" s="7">
-        <v>53</v>
+        <v>5</v>
       </c>
       <c r="I17" s="7">
-        <v>37909</v>
+        <v>3241</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>188</v>
+        <v>56</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>189</v>
+        <v>72</v>
       </c>
       <c r="M17" s="7">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="N17" s="7">
-        <v>70916</v>
+        <v>8051</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3604,49 +3604,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="D18" s="7">
-        <v>30806</v>
+        <v>9955</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="H18" s="7">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="I18" s="7">
-        <v>27678</v>
+        <v>18314</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="M18" s="7">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="N18" s="7">
-        <v>58484</v>
+        <v>28269</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3655,49 +3655,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>105728</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>47</v>
+        <v>186</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>48</v>
+        <v>187</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>121</v>
+        <v>188</v>
       </c>
       <c r="H19" s="7">
-        <v>0</v>
+        <v>188</v>
       </c>
       <c r="I19" s="7">
-        <v>0</v>
+        <v>132357</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>47</v>
+        <v>189</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>48</v>
+        <v>190</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="M19" s="7">
-        <v>0</v>
+        <v>341</v>
       </c>
       <c r="N19" s="7">
-        <v>0</v>
+        <v>238084</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>47</v>
+        <v>192</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>48</v>
+        <v>193</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3706,46 +3706,46 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>0</v>
+        <v>202</v>
       </c>
       <c r="D20" s="7">
-        <v>0</v>
+        <v>136607</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>47</v>
+        <v>195</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>48</v>
+        <v>196</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>121</v>
+        <v>197</v>
       </c>
       <c r="H20" s="7">
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="I20" s="7">
-        <v>0</v>
+        <v>86512</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>47</v>
+        <v>198</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>48</v>
+        <v>199</v>
       </c>
       <c r="L20" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="M20" s="7">
+        <v>326</v>
+      </c>
+      <c r="N20" s="7">
+        <v>223119</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="M20" s="7">
-        <v>0</v>
-      </c>
-      <c r="N20" s="7">
-        <v>0</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>203</v>
@@ -3757,49 +3757,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>92</v>
+        <v>383</v>
       </c>
       <c r="D21" s="7">
-        <v>66174</v>
+        <v>260592</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="H21" s="7">
-        <v>97</v>
+        <v>345</v>
       </c>
       <c r="I21" s="7">
-        <v>68693</v>
+        <v>242105</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="M21" s="7">
-        <v>189</v>
+        <v>728</v>
       </c>
       <c r="N21" s="7">
-        <v>134867</v>
+        <v>502696</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3810,49 +3810,49 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D22" s="7">
-        <v>12316</v>
+        <v>3492</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H22" s="7">
+        <v>3</v>
+      </c>
+      <c r="I22" s="7">
+        <v>1680</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>8</v>
+      </c>
+      <c r="N22" s="7">
+        <v>5172</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="H22" s="7">
-        <v>29</v>
-      </c>
-      <c r="I22" s="7">
-        <v>21420</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="M22" s="7">
-        <v>48</v>
-      </c>
-      <c r="N22" s="7">
-        <v>33736</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3861,49 +3861,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>199</v>
+        <v>7</v>
       </c>
       <c r="D23" s="7">
-        <v>138735</v>
+        <v>4810</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="H23" s="7">
+        <v>5</v>
+      </c>
+      <c r="I23" s="7">
+        <v>3241</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="M23" s="7">
+        <v>12</v>
+      </c>
+      <c r="N23" s="7">
+        <v>8051</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="H23" s="7">
-        <v>241</v>
-      </c>
-      <c r="I23" s="7">
-        <v>170266</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="M23" s="7">
-        <v>440</v>
-      </c>
-      <c r="N23" s="7">
-        <v>309001</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3912,49 +3912,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>245</v>
+        <v>19</v>
       </c>
       <c r="D24" s="7">
-        <v>167413</v>
+        <v>12316</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="H24" s="7">
+        <v>29</v>
+      </c>
+      <c r="I24" s="7">
+        <v>21420</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="M24" s="7">
+        <v>48</v>
+      </c>
+      <c r="N24" s="7">
+        <v>33736</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="H24" s="7">
-        <v>164</v>
-      </c>
-      <c r="I24" s="7">
-        <v>114190</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="M24" s="7">
-        <v>409</v>
-      </c>
-      <c r="N24" s="7">
-        <v>281602</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3963,49 +3963,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>5</v>
+        <v>199</v>
       </c>
       <c r="D25" s="7">
-        <v>3492</v>
+        <v>138735</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>126</v>
+        <v>224</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>127</v>
+        <v>225</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>128</v>
+        <v>226</v>
       </c>
       <c r="H25" s="7">
-        <v>3</v>
+        <v>241</v>
       </c>
       <c r="I25" s="7">
-        <v>1680</v>
+        <v>170266</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>56</v>
+        <v>227</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>50</v>
+        <v>228</v>
       </c>
       <c r="L25" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="M25" s="7">
+        <v>440</v>
+      </c>
+      <c r="N25" s="7">
+        <v>309001</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="M25" s="7">
-        <v>8</v>
-      </c>
-      <c r="N25" s="7">
-        <v>5172</v>
-      </c>
-      <c r="O25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4014,40 +4014,40 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>7</v>
+        <v>245</v>
       </c>
       <c r="D26" s="7">
-        <v>4810</v>
+        <v>167413</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F26" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="H26" s="7">
+        <v>164</v>
+      </c>
+      <c r="I26" s="7">
+        <v>114190</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="H26" s="7">
-        <v>5</v>
-      </c>
-      <c r="I26" s="7">
-        <v>3241</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>238</v>
       </c>
       <c r="M26" s="7">
-        <v>12</v>
+        <v>409</v>
       </c>
       <c r="N26" s="7">
-        <v>8051</v>
+        <v>281602</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>239</v>
@@ -4071,13 +4071,13 @@
         <v>326766</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="H27" s="7">
         <v>442</v>
@@ -4086,13 +4086,13 @@
         <v>310798</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="M27" s="7">
         <v>917</v>
@@ -4101,13 +4101,13 @@
         <v>637563</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -4126,7 +4126,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D278261F-329C-4075-8E1C-03F8397EEEE1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B80EB50-E8CF-45DF-A82A-0016E99A0D43}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4516,49 +4516,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>10160</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>0</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="H10" s="7">
-        <v>11</v>
-      </c>
-      <c r="I10" s="7">
-        <v>7967</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="M10" s="7">
-        <v>25</v>
-      </c>
-      <c r="N10" s="7">
-        <v>18127</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4567,49 +4567,49 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>121</v>
+        <v>2</v>
       </c>
       <c r="D11" s="7">
-        <v>89259</v>
+        <v>1416</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>251</v>
+        <v>17</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="H11" s="7">
-        <v>129</v>
+        <v>0</v>
       </c>
       <c r="I11" s="7">
-        <v>89805</v>
+        <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>253</v>
+        <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>254</v>
+        <v>18</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="M11" s="7">
-        <v>250</v>
+        <v>2</v>
       </c>
       <c r="N11" s="7">
-        <v>179063</v>
+        <v>1416</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>257</v>
+        <v>17</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4618,49 +4618,49 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>227</v>
+        <v>5</v>
       </c>
       <c r="D12" s="7">
-        <v>168127</v>
+        <v>3494</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="H12" s="7">
-        <v>216</v>
+        <v>4</v>
       </c>
       <c r="I12" s="7">
-        <v>156823</v>
+        <v>2641</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>262</v>
+        <v>209</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>263</v>
+        <v>105</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="M12" s="7">
-        <v>443</v>
+        <v>9</v>
       </c>
       <c r="N12" s="7">
-        <v>324951</v>
+        <v>6135</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4669,49 +4669,49 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="D13" s="7">
-        <v>2070</v>
+        <v>24414</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="H13" s="7">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="I13" s="7">
-        <v>2035</v>
+        <v>27832</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="M13" s="7">
-        <v>6</v>
+        <v>78</v>
       </c>
       <c r="N13" s="7">
-        <v>4105</v>
+        <v>52247</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4720,49 +4720,49 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="D14" s="7">
-        <v>3721</v>
+        <v>46542</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="H14" s="7">
-        <v>3</v>
+        <v>84</v>
       </c>
       <c r="I14" s="7">
-        <v>2009</v>
+        <v>55870</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>47</v>
+        <v>269</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="M14" s="7">
-        <v>8</v>
+        <v>151</v>
       </c>
       <c r="N14" s="7">
-        <v>5730</v>
+        <v>102413</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4771,102 +4771,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>370</v>
+        <v>110</v>
       </c>
       <c r="D15" s="7">
-        <v>273337</v>
+        <v>75866</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="H15" s="7">
-        <v>362</v>
+        <v>130</v>
       </c>
       <c r="I15" s="7">
-        <v>258639</v>
+        <v>86343</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="M15" s="7">
-        <v>732</v>
+        <v>240</v>
       </c>
       <c r="N15" s="7">
-        <v>531976</v>
+        <v>162210</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D16" s="7">
-        <v>3494</v>
+        <v>2070</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>285</v>
+        <v>214</v>
       </c>
       <c r="H16" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I16" s="7">
-        <v>2641</v>
+        <v>2035</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>236</v>
+        <v>276</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>130</v>
+        <v>277</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="M16" s="7">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="N16" s="7">
-        <v>6135</v>
+        <v>4105</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4875,49 +4875,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="D17" s="7">
-        <v>24414</v>
+        <v>3721</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="H17" s="7">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="I17" s="7">
-        <v>27832</v>
+        <v>2009</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>294</v>
+        <v>17</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="M17" s="7">
-        <v>78</v>
+        <v>8</v>
       </c>
       <c r="N17" s="7">
-        <v>52247</v>
+        <v>5730</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4926,49 +4926,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="D18" s="7">
-        <v>46542</v>
+        <v>10160</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="H18" s="7">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="I18" s="7">
-        <v>55870</v>
+        <v>7967</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>303</v>
+        <v>174</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="M18" s="7">
-        <v>151</v>
+        <v>25</v>
       </c>
       <c r="N18" s="7">
-        <v>102413</v>
+        <v>18127</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4977,49 +4977,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>121</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>89259</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>47</v>
+        <v>296</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>48</v>
+        <v>297</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>91</v>
+        <v>298</v>
       </c>
       <c r="H19" s="7">
-        <v>0</v>
+        <v>129</v>
       </c>
       <c r="I19" s="7">
-        <v>0</v>
+        <v>89805</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>47</v>
+        <v>299</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>48</v>
+        <v>300</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="M19" s="7">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="N19" s="7">
-        <v>0</v>
+        <v>179063</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>47</v>
+        <v>302</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>48</v>
+        <v>303</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5028,46 +5028,46 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>2</v>
+        <v>227</v>
       </c>
       <c r="D20" s="7">
-        <v>1416</v>
+        <v>168127</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="H20" s="7">
+        <v>216</v>
+      </c>
+      <c r="I20" s="7">
+        <v>156823</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>443</v>
+      </c>
+      <c r="N20" s="7">
+        <v>324951</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1416</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>313</v>
@@ -5079,49 +5079,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>110</v>
+        <v>370</v>
       </c>
       <c r="D21" s="7">
-        <v>75866</v>
+        <v>273337</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="H21" s="7">
-        <v>130</v>
+        <v>362</v>
       </c>
       <c r="I21" s="7">
-        <v>86343</v>
+        <v>258639</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="M21" s="7">
-        <v>240</v>
+        <v>732</v>
       </c>
       <c r="N21" s="7">
-        <v>162210</v>
+        <v>531976</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5132,10 +5132,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="D22" s="7">
-        <v>13653</v>
+        <v>2070</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>314</v>
@@ -5147,34 +5147,34 @@
         <v>316</v>
       </c>
       <c r="H22" s="7">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="I22" s="7">
-        <v>10608</v>
+        <v>2035</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>6</v>
+      </c>
+      <c r="N22" s="7">
+        <v>4105</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="M22" s="7">
-        <v>34</v>
-      </c>
-      <c r="N22" s="7">
-        <v>24261</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5183,49 +5183,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>157</v>
+        <v>7</v>
       </c>
       <c r="D23" s="7">
-        <v>113672</v>
+        <v>5138</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="H23" s="7">
+        <v>3</v>
+      </c>
+      <c r="I23" s="7">
+        <v>2009</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="M23" s="7">
+        <v>10</v>
+      </c>
+      <c r="N23" s="7">
+        <v>7146</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="H23" s="7">
-        <v>171</v>
-      </c>
-      <c r="I23" s="7">
-        <v>117637</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="M23" s="7">
-        <v>328</v>
-      </c>
-      <c r="N23" s="7">
-        <v>231309</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5234,49 +5234,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>294</v>
+        <v>19</v>
       </c>
       <c r="D24" s="7">
-        <v>214670</v>
+        <v>13653</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="H24" s="7">
+        <v>15</v>
+      </c>
+      <c r="I24" s="7">
+        <v>10608</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="M24" s="7">
+        <v>34</v>
+      </c>
+      <c r="N24" s="7">
+        <v>24261</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>332</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="H24" s="7">
-        <v>300</v>
-      </c>
-      <c r="I24" s="7">
-        <v>212694</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="M24" s="7">
-        <v>594</v>
-      </c>
-      <c r="N24" s="7">
-        <v>427363</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5285,49 +5285,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>3</v>
+        <v>157</v>
       </c>
       <c r="D25" s="7">
-        <v>2070</v>
+        <v>113672</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="H25" s="7">
+        <v>171</v>
+      </c>
+      <c r="I25" s="7">
+        <v>117637</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="M25" s="7">
+        <v>328</v>
+      </c>
+      <c r="N25" s="7">
+        <v>231309</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>341</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="H25" s="7">
-        <v>3</v>
-      </c>
-      <c r="I25" s="7">
-        <v>2035</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="M25" s="7">
-        <v>6</v>
-      </c>
-      <c r="N25" s="7">
-        <v>4105</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5336,46 +5336,46 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>7</v>
+        <v>294</v>
       </c>
       <c r="D26" s="7">
-        <v>5138</v>
+        <v>214670</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>231</v>
+        <v>342</v>
       </c>
       <c r="F26" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="H26" s="7">
+        <v>300</v>
+      </c>
+      <c r="I26" s="7">
+        <v>212694</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="M26" s="7">
+        <v>594</v>
+      </c>
+      <c r="N26" s="7">
+        <v>427363</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="H26" s="7">
-        <v>3</v>
-      </c>
-      <c r="I26" s="7">
-        <v>2009</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="P26" s="7" t="s">
         <v>349</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="M26" s="7">
-        <v>10</v>
-      </c>
-      <c r="N26" s="7">
-        <v>7146</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>350</v>
@@ -5393,13 +5393,13 @@
         <v>349203</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="H27" s="7">
         <v>492</v>
@@ -5408,13 +5408,13 @@
         <v>344983</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="M27" s="7">
         <v>972</v>
@@ -5423,13 +5423,13 @@
         <v>694185</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07C02-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07C02-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F381AFD-BDD0-4C52-9BB8-B91F1BC7038B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B37AE55-6555-4345-9F34-F33D1C0BE63A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{F8B96B9B-A48F-4D6F-9239-7A89988BE028}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{44FCF55F-114F-40C1-84D0-B858250E4769}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="357">
   <si>
     <t>Menores según frecuencia de haber podido correr bien en 2007 (Tasa respuesta: 42,63%)</t>
   </si>
@@ -67,919 +67,1033 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Muchísimo</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>Mucho</t>
+  </si>
+  <si>
+    <t>Moderadamente</t>
+  </si>
+  <si>
+    <t>Poco</t>
   </si>
   <si>
     <t>Nada</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>Poco</t>
-  </si>
-  <si>
-    <t>Moderadamente</t>
-  </si>
-  <si>
-    <t>Mucho</t>
-  </si>
-  <si>
-    <t>Muchísimo</t>
-  </si>
-  <si>
-    <t>5/9</t>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>52,24%</t>
+  </si>
+  <si>
+    <t>45,32%</t>
+  </si>
+  <si>
+    <t>59,35%</t>
+  </si>
+  <si>
+    <t>54,15%</t>
+  </si>
+  <si>
+    <t>46,01%</t>
+  </si>
+  <si>
+    <t>61,42%</t>
+  </si>
+  <si>
+    <t>53,15%</t>
+  </si>
+  <si>
+    <t>47,12%</t>
+  </si>
+  <si>
+    <t>57,23%</t>
+  </si>
+  <si>
+    <t>42,97%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>50,47%</t>
+  </si>
+  <si>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>47,07%</t>
+  </si>
+  <si>
+    <t>41,17%</t>
+  </si>
+  <si>
+    <t>36,69%</t>
+  </si>
+  <si>
+    <t>46,87%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
+    <t>3,99%</t>
+  </si>
+  <si>
     <t>0%</t>
   </si>
   <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>59,47%</t>
+  </si>
+  <si>
+    <t>53,86%</t>
+  </si>
+  <si>
+    <t>65,26%</t>
+  </si>
+  <si>
+    <t>52,27%</t>
+  </si>
+  <si>
+    <t>46,02%</t>
+  </si>
+  <si>
+    <t>58,23%</t>
+  </si>
+  <si>
+    <t>55,94%</t>
+  </si>
+  <si>
+    <t>52,05%</t>
+  </si>
+  <si>
+    <t>60,13%</t>
+  </si>
+  <si>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>41,85%</t>
+  </si>
+  <si>
+    <t>41,99%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>48,11%</t>
+  </si>
+  <si>
+    <t>39,08%</t>
+  </si>
+  <si>
+    <t>35,05%</t>
+  </si>
+  <si>
+    <t>42,9%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>56,58%</t>
+  </si>
+  <si>
+    <t>51,71%</t>
+  </si>
+  <si>
+    <t>60,95%</t>
+  </si>
+  <si>
+    <t>53,0%</t>
+  </si>
+  <si>
+    <t>48,4%</t>
+  </si>
+  <si>
+    <t>57,61%</t>
+  </si>
+  <si>
+    <t>54,84%</t>
+  </si>
+  <si>
+    <t>51,81%</t>
+  </si>
+  <si>
+    <t>58,27%</t>
+  </si>
+  <si>
+    <t>38,96%</t>
+  </si>
+  <si>
+    <t>34,67%</t>
+  </si>
+  <si>
+    <t>43,94%</t>
+  </si>
+  <si>
+    <t>40,91%</t>
+  </si>
+  <si>
+    <t>36,38%</t>
+  </si>
+  <si>
+    <t>45,59%</t>
+  </si>
+  <si>
+    <t>39,9%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de haber podido correr bien en 2012 (Tasa respuesta: 43,69%)</t>
+  </si>
+  <si>
+    <t>52,11%</t>
+  </si>
+  <si>
+    <t>45,49%</t>
+  </si>
+  <si>
+    <t>59,09%</t>
+  </si>
+  <si>
+    <t>40,04%</t>
+  </si>
+  <si>
+    <t>33,74%</t>
+  </si>
+  <si>
+    <t>46,65%</t>
+  </si>
+  <si>
+    <t>46,2%</t>
+  </si>
+  <si>
+    <t>41,79%</t>
+  </si>
+  <si>
+    <t>50,63%</t>
+  </si>
+  <si>
+    <t>43,15%</t>
+  </si>
+  <si>
+    <t>36,59%</t>
+  </si>
+  <si>
+    <t>49,87%</t>
+  </si>
+  <si>
+    <t>53,99%</t>
+  </si>
+  <si>
+    <t>47,13%</t>
+  </si>
+  <si>
+    <t>60,71%</t>
+  </si>
+  <si>
+    <t>48,46%</t>
+  </si>
+  <si>
+    <t>43,81%</t>
+  </si>
+  <si>
+    <t>52,94%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>50,43%</t>
+  </si>
+  <si>
+    <t>44,27%</t>
+  </si>
+  <si>
+    <t>57,05%</t>
+  </si>
+  <si>
+    <t>33,69%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>39,6%</t>
+  </si>
+  <si>
+    <t>42,31%</t>
+  </si>
+  <si>
+    <t>37,9%</t>
+  </si>
+  <si>
+    <t>46,51%</t>
+  </si>
+  <si>
+    <t>41,83%</t>
+  </si>
+  <si>
+    <t>35,74%</t>
+  </si>
+  <si>
+    <t>48,1%</t>
+  </si>
+  <si>
+    <t>55,52%</t>
+  </si>
+  <si>
+    <t>49,65%</t>
+  </si>
+  <si>
+    <t>61,84%</t>
+  </si>
+  <si>
+    <t>48,47%</t>
+  </si>
+  <si>
+    <t>44,32%</t>
+  </si>
+  <si>
+    <t>53,21%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>51,23%</t>
+  </si>
+  <si>
+    <t>46,99%</t>
+  </si>
+  <si>
+    <t>55,65%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>41,27%</t>
+  </si>
+  <si>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>40,63%</t>
+  </si>
+  <si>
+    <t>47,42%</t>
+  </si>
+  <si>
+    <t>42,46%</t>
+  </si>
+  <si>
+    <t>38,34%</t>
+  </si>
+  <si>
+    <t>46,69%</t>
+  </si>
+  <si>
+    <t>54,78%</t>
+  </si>
+  <si>
+    <t>49,34%</t>
+  </si>
+  <si>
+    <t>59,11%</t>
+  </si>
+  <si>
+    <t>45,14%</t>
+  </si>
+  <si>
+    <t>51,75%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
   </si>
   <si>
     <t>4,79%</t>
   </si>
   <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>40,35%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>50,9%</t>
-  </si>
-  <si>
-    <t>39,36%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>51,42%</t>
-  </si>
-  <si>
-    <t>39,9%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>47,97%</t>
-  </si>
-  <si>
-    <t>58,46%</t>
-  </si>
-  <si>
-    <t>47,65%</t>
-  </si>
-  <si>
-    <t>69,27%</t>
-  </si>
-  <si>
-    <t>55,75%</t>
-  </si>
-  <si>
-    <t>43,6%</t>
-  </si>
-  <si>
-    <t>66,13%</t>
-  </si>
-  <si>
-    <t>57,24%</t>
-  </si>
-  <si>
-    <t>49,21%</t>
-  </si>
-  <si>
-    <t>64,78%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de haber podido correr bien en 2015 (Tasa respuesta: 45,72%)</t>
+  </si>
+  <si>
+    <t>64,63%</t>
+  </si>
+  <si>
+    <t>58,83%</t>
+  </si>
+  <si>
+    <t>70,36%</t>
+  </si>
+  <si>
+    <t>67,59%</t>
+  </si>
+  <si>
+    <t>62,35%</t>
+  </si>
+  <si>
+    <t>73,29%</t>
+  </si>
+  <si>
+    <t>66,12%</t>
+  </si>
+  <si>
+    <t>61,77%</t>
+  </si>
+  <si>
+    <t>69,71%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>36,96%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>34,92%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>58,17%</t>
+  </si>
+  <si>
+    <t>51,93%</t>
+  </si>
+  <si>
+    <t>64,54%</t>
+  </si>
+  <si>
+    <t>55,16%</t>
+  </si>
+  <si>
+    <t>48,83%</t>
+  </si>
+  <si>
+    <t>61,69%</t>
+  </si>
+  <si>
+    <t>56,69%</t>
+  </si>
+  <si>
+    <t>51,67%</t>
+  </si>
+  <si>
+    <t>60,8%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>40,55%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>45,4%</t>
+  </si>
+  <si>
+    <t>36,56%</t>
+  </si>
+  <si>
+    <t>32,42%</t>
+  </si>
+  <si>
+    <t>41,21%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
   </si>
   <si>
     <t>2,86%</t>
   </si>
   <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>38,63%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>44,15%</t>
-  </si>
-  <si>
-    <t>41,23%</t>
-  </si>
-  <si>
-    <t>36,27%</t>
-  </si>
-  <si>
-    <t>46,33%</t>
-  </si>
-  <si>
-    <t>36,36%</t>
-  </si>
-  <si>
-    <t>43,55%</t>
-  </si>
-  <si>
-    <t>56,14%</t>
-  </si>
-  <si>
-    <t>50,77%</t>
-  </si>
-  <si>
-    <t>61,25%</t>
-  </si>
-  <si>
-    <t>52,44%</t>
-  </si>
-  <si>
-    <t>47,13%</t>
-  </si>
-  <si>
-    <t>57,54%</t>
-  </si>
-  <si>
-    <t>54,32%</t>
-  </si>
-  <si>
-    <t>50,61%</t>
-  </si>
-  <si>
-    <t>57,82%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>38,96%</t>
-  </si>
-  <si>
-    <t>34,75%</t>
-  </si>
-  <si>
-    <t>44,01%</t>
-  </si>
-  <si>
-    <t>40,91%</t>
-  </si>
-  <si>
-    <t>36,16%</t>
-  </si>
-  <si>
-    <t>45,54%</t>
-  </si>
-  <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>43,13%</t>
-  </si>
-  <si>
-    <t>56,58%</t>
-  </si>
-  <si>
-    <t>51,76%</t>
-  </si>
-  <si>
-    <t>61,05%</t>
-  </si>
-  <si>
-    <t>53,0%</t>
-  </si>
-  <si>
-    <t>48,3%</t>
-  </si>
-  <si>
-    <t>57,69%</t>
-  </si>
-  <si>
-    <t>54,84%</t>
-  </si>
-  <si>
-    <t>51,67%</t>
-  </si>
-  <si>
-    <t>57,77%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de haber podido correr bien en 2012 (Tasa respuesta: 43,69%)</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>49,88%</t>
-  </si>
-  <si>
-    <t>39,92%</t>
-  </si>
-  <si>
-    <t>60,39%</t>
-  </si>
-  <si>
-    <t>55,19%</t>
-  </si>
-  <si>
-    <t>45,22%</t>
-  </si>
-  <si>
-    <t>64,14%</t>
-  </si>
-  <si>
-    <t>52,58%</t>
-  </si>
-  <si>
-    <t>45,88%</t>
-  </si>
-  <si>
-    <t>60,32%</t>
-  </si>
-  <si>
-    <t>46,55%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>56,9%</t>
-  </si>
-  <si>
-    <t>40,29%</t>
-  </si>
-  <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>50,26%</t>
-  </si>
-  <si>
-    <t>43,36%</t>
-  </si>
-  <si>
-    <t>35,84%</t>
-  </si>
-  <si>
-    <t>50,21%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>40,57%</t>
-  </si>
-  <si>
-    <t>35,81%</t>
-  </si>
-  <si>
-    <t>45,6%</t>
-  </si>
-  <si>
-    <t>54,67%</t>
-  </si>
-  <si>
-    <t>49,67%</t>
-  </si>
-  <si>
-    <t>59,88%</t>
-  </si>
-  <si>
-    <t>47,36%</t>
-  </si>
-  <si>
-    <t>43,82%</t>
-  </si>
-  <si>
-    <t>51,24%</t>
-  </si>
-  <si>
-    <t>52,42%</t>
-  </si>
-  <si>
-    <t>47,49%</t>
-  </si>
-  <si>
-    <t>57,39%</t>
-  </si>
-  <si>
-    <t>35,73%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>40,81%</t>
-  </si>
-  <si>
-    <t>44,38%</t>
-  </si>
-  <si>
-    <t>40,78%</t>
-  </si>
-  <si>
-    <t>48,24%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
     <t>7,05%</t>
   </si>
   <si>
-    <t>42,46%</t>
-  </si>
-  <si>
-    <t>37,95%</t>
-  </si>
-  <si>
-    <t>46,89%</t>
-  </si>
-  <si>
-    <t>54,78%</t>
-  </si>
-  <si>
-    <t>49,83%</t>
-  </si>
-  <si>
-    <t>59,38%</t>
-  </si>
-  <si>
-    <t>48,47%</t>
-  </si>
-  <si>
-    <t>45,11%</t>
-  </si>
-  <si>
-    <t>51,66%</t>
-  </si>
-  <si>
-    <t>51,23%</t>
-  </si>
-  <si>
-    <t>46,82%</t>
-  </si>
-  <si>
-    <t>55,7%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>41,42%</t>
-  </si>
-  <si>
-    <t>44,17%</t>
-  </si>
-  <si>
-    <t>41,06%</t>
-  </si>
-  <si>
-    <t>47,54%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de haber podido correr bien en 2015 (Tasa respuesta: 45,72%)</t>
-  </si>
-  <si>
-    <t>1,46%</t>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
   </si>
   <si>
     <t>0,8%</t>
   </si>
   <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>61,47%</t>
+  </si>
+  <si>
+    <t>57,3%</t>
+  </si>
+  <si>
+    <t>65,6%</t>
+  </si>
+  <si>
+    <t>61,65%</t>
+  </si>
+  <si>
+    <t>56,91%</t>
+  </si>
+  <si>
+    <t>65,94%</t>
+  </si>
+  <si>
+    <t>61,56%</t>
+  </si>
+  <si>
+    <t>58,44%</t>
+  </si>
+  <si>
+    <t>64,79%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>36,91%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>38,59%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>36,33%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
   </si>
   <si>
     <t>2,8%</t>
   </si>
   <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>42,08%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>40,99%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>61,35%</t>
-  </si>
-  <si>
-    <t>51,27%</t>
-  </si>
-  <si>
-    <t>69,85%</t>
-  </si>
-  <si>
-    <t>64,71%</t>
-  </si>
-  <si>
-    <t>55,88%</t>
-  </si>
-  <si>
-    <t>72,75%</t>
-  </si>
-  <si>
-    <t>63,14%</t>
-  </si>
-  <si>
-    <t>56,85%</t>
-  </si>
-  <si>
-    <t>69,0%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>37,17%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>39,74%</t>
-  </si>
-  <si>
-    <t>33,66%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>37,32%</t>
-  </si>
-  <si>
-    <t>61,51%</t>
-  </si>
-  <si>
-    <t>56,71%</t>
-  </si>
-  <si>
-    <t>66,15%</t>
-  </si>
-  <si>
-    <t>60,63%</t>
-  </si>
-  <si>
-    <t>55,23%</t>
-  </si>
-  <si>
-    <t>65,23%</t>
-  </si>
-  <si>
-    <t>61,08%</t>
-  </si>
-  <si>
-    <t>57,66%</t>
-  </si>
-  <si>
-    <t>64,76%</t>
+    <t>1,72%</t>
   </si>
   <si>
     <t>0,59%</t>
@@ -988,109 +1102,13 @@
     <t>0,17%</t>
   </si>
   <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
+    <t>1,45%</t>
   </si>
   <si>
     <t>1,68%</t>
   </si>
   <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>32,55%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>36,73%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
-  </si>
-  <si>
-    <t>61,47%</t>
-  </si>
-  <si>
-    <t>56,96%</t>
-  </si>
-  <si>
-    <t>65,79%</t>
-  </si>
-  <si>
-    <t>61,65%</t>
-  </si>
-  <si>
-    <t>57,12%</t>
-  </si>
-  <si>
-    <t>65,71%</t>
-  </si>
-  <si>
-    <t>61,56%</t>
-  </si>
-  <si>
-    <t>58,73%</t>
-  </si>
-  <si>
-    <t>64,51%</t>
+    <t>1,22%</t>
   </si>
 </sst>
 </file>
@@ -1101,7 +1119,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1197,39 +1215,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1281,7 +1299,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1392,13 +1410,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1407,6 +1418,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1471,19 +1489,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC8053F2-D2B2-43BB-85C9-4912B664CEFD}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F3C5C4A-B679-4752-8BF2-44E22DCA1A1A}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1874,47 +1912,41 @@
       <c r="C10" s="7">
         <v>0</v>
       </c>
-      <c r="D10" s="7">
-        <v>0</v>
-      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
       </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
       </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1923,49 +1955,43 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
-      </c>
-      <c r="D11" s="7">
-        <v>700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>2</v>
-      </c>
-      <c r="I11" s="7">
-        <v>1169</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
-        <v>3</v>
-      </c>
-      <c r="N11" s="7">
-        <v>1869</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1976,47 +2002,41 @@
       <c r="C12" s="7">
         <v>0</v>
       </c>
-      <c r="D12" s="7">
-        <v>0</v>
-      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>2</v>
-      </c>
-      <c r="I12" s="7">
-        <v>1223</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>2</v>
-      </c>
-      <c r="N12" s="7">
-        <v>1223</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2025,49 +2045,43 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>35</v>
-      </c>
-      <c r="D13" s="7">
-        <v>23834</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>29</v>
-      </c>
-      <c r="I13" s="7">
-        <v>19238</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>64</v>
-      </c>
-      <c r="N13" s="7">
-        <v>43073</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2076,49 +2090,43 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>54</v>
-      </c>
-      <c r="D14" s="7">
-        <v>34534</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>40</v>
-      </c>
-      <c r="I14" s="7">
-        <v>27252</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
-        <v>94</v>
-      </c>
-      <c r="N14" s="7">
-        <v>61786</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2127,102 +2135,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>90</v>
-      </c>
-      <c r="D15" s="7">
-        <v>59069</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>73</v>
-      </c>
-      <c r="I15" s="7">
-        <v>48882</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>163</v>
-      </c>
-      <c r="N15" s="7">
-        <v>107951</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="D16" s="7">
-        <v>2582</v>
+        <v>64504</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>60497</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="M16" s="7">
-        <v>4</v>
+        <v>191</v>
       </c>
       <c r="N16" s="7">
-        <v>2582</v>
+        <v>125000</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2231,49 +2233,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>4</v>
+        <v>77</v>
       </c>
       <c r="D17" s="7">
-        <v>2614</v>
+        <v>53060</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="H17" s="7">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="I17" s="7">
-        <v>3458</v>
+        <v>43773</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="M17" s="7">
-        <v>9</v>
+        <v>143</v>
       </c>
       <c r="N17" s="7">
-        <v>6073</v>
+        <v>96832</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2282,49 +2284,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D18" s="7">
-        <v>7895</v>
+        <v>2658</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="H18" s="7">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="I18" s="7">
-        <v>11860</v>
+        <v>4826</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="M18" s="7">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="N18" s="7">
-        <v>19755</v>
+        <v>7484</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2333,49 +2335,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>143</v>
+        <v>3</v>
       </c>
       <c r="D19" s="7">
-        <v>96574</v>
+        <v>1991</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="H19" s="7">
-        <v>148</v>
+        <v>4</v>
       </c>
       <c r="I19" s="7">
-        <v>99667</v>
+        <v>2615</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="M19" s="7">
-        <v>291</v>
+        <v>7</v>
       </c>
       <c r="N19" s="7">
-        <v>196242</v>
+        <v>4607</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2384,49 +2386,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>212</v>
+        <v>2</v>
       </c>
       <c r="D20" s="7">
-        <v>140360</v>
+        <v>1268</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="H20" s="7">
-        <v>189</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>126778</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="M20" s="7">
-        <v>401</v>
+        <v>2</v>
       </c>
       <c r="N20" s="7">
-        <v>267139</v>
+        <v>1268</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2435,102 +2437,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>375</v>
+        <v>186</v>
       </c>
       <c r="D21" s="7">
-        <v>250026</v>
+        <v>123481</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="H21" s="7">
-        <v>359</v>
+        <v>168</v>
       </c>
       <c r="I21" s="7">
-        <v>241764</v>
+        <v>111711</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="M21" s="7">
-        <v>734</v>
+        <v>354</v>
       </c>
       <c r="N21" s="7">
-        <v>491790</v>
+        <v>235192</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>4</v>
+        <v>166</v>
       </c>
       <c r="D22" s="7">
-        <v>2582</v>
+        <v>110391</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="H22" s="7">
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="I22" s="7">
-        <v>0</v>
+        <v>93533</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="M22" s="7">
-        <v>4</v>
+        <v>304</v>
       </c>
       <c r="N22" s="7">
-        <v>2582</v>
+        <v>203924</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2539,49 +2541,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>5</v>
+        <v>101</v>
       </c>
       <c r="D23" s="7">
-        <v>3315</v>
+        <v>67348</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="H23" s="7">
-        <v>7</v>
+        <v>111</v>
       </c>
       <c r="I23" s="7">
-        <v>4627</v>
+        <v>75133</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="M23" s="7">
-        <v>12</v>
+        <v>212</v>
       </c>
       <c r="N23" s="7">
-        <v>7942</v>
+        <v>142482</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2590,49 +2592,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
+        <v>8</v>
+      </c>
+      <c r="D24" s="7">
+        <v>5237</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H24" s="7">
         <v>12</v>
       </c>
-      <c r="D24" s="7">
-        <v>7895</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="H24" s="7">
-        <v>19</v>
-      </c>
       <c r="I24" s="7">
-        <v>13083</v>
+        <v>8257</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="M24" s="7">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="N24" s="7">
-        <v>20978</v>
+        <v>13494</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>117</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2641,49 +2643,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>178</v>
+        <v>2</v>
       </c>
       <c r="D25" s="7">
-        <v>120408</v>
+        <v>1323</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>119</v>
+        <v>55</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="H25" s="7">
-        <v>177</v>
+        <v>3</v>
       </c>
       <c r="I25" s="7">
-        <v>118906</v>
+        <v>2012</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="M25" s="7">
-        <v>355</v>
+        <v>5</v>
       </c>
       <c r="N25" s="7">
-        <v>239314</v>
+        <v>3335</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>39</v>
+        <v>95</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2692,49 +2694,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>266</v>
+        <v>2</v>
       </c>
       <c r="D26" s="7">
-        <v>174895</v>
+        <v>1314</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>126</v>
+        <v>90</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>127</v>
+        <v>55</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="H26" s="7">
-        <v>229</v>
+        <v>0</v>
       </c>
       <c r="I26" s="7">
-        <v>154030</v>
+        <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>129</v>
+        <v>55</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>130</v>
+        <v>57</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>131</v>
+        <v>98</v>
       </c>
       <c r="M26" s="7">
-        <v>495</v>
+        <v>2</v>
       </c>
       <c r="N26" s="7">
-        <v>328925</v>
+        <v>1314</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>132</v>
+        <v>99</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>133</v>
+        <v>55</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>134</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2743,55 +2745,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>279</v>
+      </c>
+      <c r="D27" s="7">
+        <v>185614</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H27" s="7">
+        <v>264</v>
+      </c>
+      <c r="I27" s="7">
+        <v>178935</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="M27" s="7">
+        <v>543</v>
+      </c>
+      <c r="N27" s="7">
+        <v>364549</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>266</v>
+      </c>
+      <c r="D28" s="7">
+        <v>174895</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H28" s="7">
+        <v>229</v>
+      </c>
+      <c r="I28" s="7">
+        <v>154030</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="M28" s="7">
+        <v>495</v>
+      </c>
+      <c r="N28" s="7">
+        <v>328925</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>178</v>
+      </c>
+      <c r="D29" s="7">
+        <v>120408</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="H29" s="7">
+        <v>177</v>
+      </c>
+      <c r="I29" s="7">
+        <v>118906</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="M29" s="7">
+        <v>355</v>
+      </c>
+      <c r="N29" s="7">
+        <v>239314</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>12</v>
+      </c>
+      <c r="D30" s="7">
+        <v>7895</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="H30" s="7">
+        <v>19</v>
+      </c>
+      <c r="I30" s="7">
+        <v>13083</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="M30" s="7">
+        <v>31</v>
+      </c>
+      <c r="N30" s="7">
+        <v>20978</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7">
+        <v>5</v>
+      </c>
+      <c r="D31" s="7">
+        <v>3315</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="H31" s="7">
+        <v>7</v>
+      </c>
+      <c r="I31" s="7">
+        <v>4627</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="M31" s="7">
+        <v>12</v>
+      </c>
+      <c r="N31" s="7">
+        <v>7942</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7">
+        <v>4</v>
+      </c>
+      <c r="D32" s="7">
+        <v>2582</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="H32" s="7">
+        <v>0</v>
+      </c>
+      <c r="I32" s="7">
+        <v>0</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="M32" s="7">
+        <v>4</v>
+      </c>
+      <c r="N32" s="7">
+        <v>2582</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>465</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>309095</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H33" s="7">
         <v>432</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>290646</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="M33" s="7">
         <v>897</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>599741</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>51</v>
+      <c r="O33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2804,8 +3120,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{178E5C3A-2B74-4CF3-ACED-9B4CA823821E}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F05A308-FCA7-479A-BA90-AD95566A769E}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2821,7 +3137,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3196,47 +3512,41 @@
       <c r="C10" s="7">
         <v>0</v>
       </c>
-      <c r="D10" s="7">
-        <v>0</v>
-      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>96</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
       </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>136</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
       </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>137</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3247,47 +3557,41 @@
       <c r="C11" s="7">
         <v>0</v>
       </c>
-      <c r="D11" s="7">
-        <v>0</v>
-      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>96</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
       </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>136</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
       </c>
-      <c r="N11" s="7">
-        <v>0</v>
-      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>137</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3296,49 +3600,43 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>3</v>
-      </c>
-      <c r="D12" s="7">
-        <v>2361</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>138</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>139</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>4</v>
-      </c>
-      <c r="I12" s="7">
-        <v>3106</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>140</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>141</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>7</v>
-      </c>
-      <c r="N12" s="7">
-        <v>5467</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>142</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>143</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>144</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3347,49 +3645,43 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>46</v>
-      </c>
-      <c r="D13" s="7">
-        <v>33007</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>145</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>146</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>147</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>53</v>
-      </c>
-      <c r="I13" s="7">
-        <v>37909</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>148</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>149</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>150</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>99</v>
-      </c>
-      <c r="N13" s="7">
-        <v>70916</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>151</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>152</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>153</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3398,49 +3690,43 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>43</v>
-      </c>
-      <c r="D14" s="7">
-        <v>30806</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>154</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>155</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>156</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>40</v>
-      </c>
-      <c r="I14" s="7">
-        <v>27678</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>157</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>158</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>159</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
-        <v>83</v>
-      </c>
-      <c r="N14" s="7">
-        <v>58484</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>160</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>161</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>162</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3449,102 +3735,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>92</v>
-      </c>
-      <c r="D15" s="7">
-        <v>66174</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>97</v>
-      </c>
-      <c r="I15" s="7">
-        <v>68693</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>189</v>
-      </c>
-      <c r="N15" s="7">
-        <v>134867</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>5</v>
+        <v>117</v>
       </c>
       <c r="D16" s="7">
-        <v>3492</v>
+        <v>80999</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="H16" s="7">
-        <v>3</v>
+        <v>87</v>
       </c>
       <c r="I16" s="7">
-        <v>1680</v>
+        <v>59782</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="M16" s="7">
-        <v>8</v>
+        <v>204</v>
       </c>
       <c r="N16" s="7">
-        <v>5172</v>
+        <v>140781</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>53</v>
+        <v>150</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3553,49 +3833,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>7</v>
+        <v>95</v>
       </c>
       <c r="D17" s="7">
-        <v>4810</v>
+        <v>67069</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="H17" s="7">
-        <v>5</v>
+        <v>113</v>
       </c>
       <c r="I17" s="7">
-        <v>3241</v>
+        <v>80596</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>56</v>
+        <v>157</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>72</v>
+        <v>158</v>
       </c>
       <c r="M17" s="7">
-        <v>12</v>
+        <v>208</v>
       </c>
       <c r="N17" s="7">
-        <v>8051</v>
+        <v>147665</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3604,49 +3884,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D18" s="7">
-        <v>9955</v>
+        <v>5972</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="H18" s="7">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="I18" s="7">
-        <v>18314</v>
+        <v>6600</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="M18" s="7">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="N18" s="7">
-        <v>28269</v>
+        <v>12572</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3655,49 +3935,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>153</v>
+        <v>1</v>
       </c>
       <c r="D19" s="7">
-        <v>105728</v>
+        <v>564</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>186</v>
+        <v>99</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>187</v>
+        <v>55</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="H19" s="7">
-        <v>188</v>
+        <v>2</v>
       </c>
       <c r="I19" s="7">
-        <v>132357</v>
+        <v>1287</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>190</v>
+        <v>55</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="M19" s="7">
-        <v>341</v>
+        <v>3</v>
       </c>
       <c r="N19" s="7">
-        <v>238084</v>
+        <v>1851</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3706,49 +3986,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>202</v>
+        <v>1</v>
       </c>
       <c r="D20" s="7">
-        <v>136607</v>
+        <v>823</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>196</v>
+        <v>55</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="H20" s="7">
-        <v>124</v>
+        <v>2</v>
       </c>
       <c r="I20" s="7">
-        <v>86512</v>
+        <v>1024</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>198</v>
+        <v>131</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>199</v>
+        <v>55</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="M20" s="7">
-        <v>326</v>
+        <v>3</v>
       </c>
       <c r="N20" s="7">
-        <v>223119</v>
+        <v>1847</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>201</v>
+        <v>174</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>203</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3757,102 +4037,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>383</v>
+        <v>223</v>
       </c>
       <c r="D21" s="7">
-        <v>260592</v>
+        <v>155427</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="H21" s="7">
-        <v>345</v>
+        <v>213</v>
       </c>
       <c r="I21" s="7">
-        <v>242105</v>
+        <v>149289</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="M21" s="7">
-        <v>728</v>
+        <v>436</v>
       </c>
       <c r="N21" s="7">
-        <v>502696</v>
+        <v>304716</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>5</v>
+        <v>128</v>
       </c>
       <c r="D22" s="7">
-        <v>3492</v>
+        <v>86414</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>101</v>
+        <v>181</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>102</v>
+        <v>182</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>103</v>
+        <v>183</v>
       </c>
       <c r="H22" s="7">
-        <v>3</v>
+        <v>77</v>
       </c>
       <c r="I22" s="7">
-        <v>1680</v>
+        <v>54408</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>63</v>
+        <v>184</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>57</v>
+        <v>185</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="M22" s="7">
-        <v>8</v>
+        <v>205</v>
       </c>
       <c r="N22" s="7">
-        <v>5172</v>
+        <v>140822</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3861,49 +4141,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>7</v>
+        <v>104</v>
       </c>
       <c r="D23" s="7">
-        <v>4810</v>
+        <v>71666</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="H23" s="7">
-        <v>5</v>
+        <v>128</v>
       </c>
       <c r="I23" s="7">
-        <v>3241</v>
+        <v>89669</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>102</v>
+        <v>194</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="M23" s="7">
-        <v>12</v>
+        <v>232</v>
       </c>
       <c r="N23" s="7">
-        <v>8051</v>
+        <v>161336</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3912,49 +4192,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D24" s="7">
-        <v>12316</v>
+        <v>6344</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>215</v>
+        <v>87</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="H24" s="7">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="I24" s="7">
-        <v>21420</v>
+        <v>14820</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="M24" s="7">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="N24" s="7">
-        <v>33736</v>
+        <v>21165</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3963,49 +4243,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>199</v>
+        <v>6</v>
       </c>
       <c r="D25" s="7">
-        <v>138735</v>
+        <v>4246</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="H25" s="7">
-        <v>241</v>
+        <v>3</v>
       </c>
       <c r="I25" s="7">
-        <v>170266</v>
+        <v>1954</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="M25" s="7">
-        <v>440</v>
+        <v>9</v>
       </c>
       <c r="N25" s="7">
-        <v>309001</v>
+        <v>6200</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>231</v>
+        <v>95</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4014,49 +4294,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>245</v>
+        <v>4</v>
       </c>
       <c r="D26" s="7">
-        <v>167413</v>
+        <v>2669</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="H26" s="7">
-        <v>164</v>
+        <v>1</v>
       </c>
       <c r="I26" s="7">
-        <v>114190</v>
+        <v>656</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>236</v>
+        <v>128</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>237</v>
+        <v>55</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="M26" s="7">
-        <v>409</v>
+        <v>5</v>
       </c>
       <c r="N26" s="7">
-        <v>281602</v>
+        <v>3325</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>241</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4065,55 +4345,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>252</v>
+      </c>
+      <c r="D27" s="7">
+        <v>171339</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H27" s="7">
+        <v>229</v>
+      </c>
+      <c r="I27" s="7">
+        <v>161508</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="M27" s="7">
+        <v>481</v>
+      </c>
+      <c r="N27" s="7">
+        <v>332847</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>245</v>
+      </c>
+      <c r="D28" s="7">
+        <v>167413</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="H28" s="7">
+        <v>164</v>
+      </c>
+      <c r="I28" s="7">
+        <v>114190</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="M28" s="7">
+        <v>409</v>
+      </c>
+      <c r="N28" s="7">
+        <v>281602</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>199</v>
+      </c>
+      <c r="D29" s="7">
+        <v>138735</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="H29" s="7">
+        <v>241</v>
+      </c>
+      <c r="I29" s="7">
+        <v>170266</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="M29" s="7">
+        <v>440</v>
+      </c>
+      <c r="N29" s="7">
+        <v>309001</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>19</v>
+      </c>
+      <c r="D30" s="7">
+        <v>12316</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="H30" s="7">
+        <v>29</v>
+      </c>
+      <c r="I30" s="7">
+        <v>21420</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="M30" s="7">
+        <v>48</v>
+      </c>
+      <c r="N30" s="7">
+        <v>33736</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7">
+        <v>7</v>
+      </c>
+      <c r="D31" s="7">
+        <v>4810</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="H31" s="7">
+        <v>5</v>
+      </c>
+      <c r="I31" s="7">
+        <v>3241</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="M31" s="7">
+        <v>12</v>
+      </c>
+      <c r="N31" s="7">
+        <v>8051</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7">
+        <v>5</v>
+      </c>
+      <c r="D32" s="7">
+        <v>3492</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="H32" s="7">
+        <v>3</v>
+      </c>
+      <c r="I32" s="7">
+        <v>1680</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="M32" s="7">
+        <v>8</v>
+      </c>
+      <c r="N32" s="7">
+        <v>5172</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>475</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>326766</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H33" s="7">
         <v>442</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>310798</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="M33" s="7">
         <v>917</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>637563</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>51</v>
+      <c r="O33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4126,8 +4720,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B80EB50-E8CF-45DF-A82A-0016E99A0D43}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1DD91E5-CE0E-411D-A3A0-72FF58C34EB1}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4143,7 +4737,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4518,47 +5112,41 @@
       <c r="C10" s="7">
         <v>0</v>
       </c>
-      <c r="D10" s="7">
-        <v>0</v>
-      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
       </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>243</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
       </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>244</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4567,49 +5155,43 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>2</v>
-      </c>
-      <c r="D11" s="7">
-        <v>1416</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>245</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>246</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
       </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>243</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
-        <v>2</v>
-      </c>
-      <c r="N11" s="7">
-        <v>1416</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>247</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>248</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4618,49 +5200,43 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>5</v>
-      </c>
-      <c r="D12" s="7">
-        <v>3494</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>249</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>250</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>251</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>4</v>
-      </c>
-      <c r="I12" s="7">
-        <v>2641</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>209</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>105</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>252</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>9</v>
-      </c>
-      <c r="N12" s="7">
-        <v>6135</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>253</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>254</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>255</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4669,49 +5245,43 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>36</v>
-      </c>
-      <c r="D13" s="7">
-        <v>24414</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>256</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>257</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>258</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>42</v>
-      </c>
-      <c r="I13" s="7">
-        <v>27832</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>259</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>260</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>261</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>78</v>
-      </c>
-      <c r="N13" s="7">
-        <v>52247</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>262</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>263</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>264</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4720,49 +5290,43 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>67</v>
-      </c>
-      <c r="D14" s="7">
-        <v>46542</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>265</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>266</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>267</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>84</v>
-      </c>
-      <c r="I14" s="7">
-        <v>55870</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>268</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>269</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>270</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
-        <v>151</v>
-      </c>
-      <c r="N14" s="7">
-        <v>102413</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>271</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>272</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>273</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4771,102 +5335,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>110</v>
-      </c>
-      <c r="D15" s="7">
-        <v>75866</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>130</v>
-      </c>
-      <c r="I15" s="7">
-        <v>86343</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>240</v>
-      </c>
-      <c r="N15" s="7">
-        <v>162210</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>3</v>
+        <v>161</v>
       </c>
       <c r="D16" s="7">
-        <v>2070</v>
+        <v>115432</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>274</v>
+        <v>255</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>275</v>
+        <v>256</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>214</v>
+        <v>257</v>
       </c>
       <c r="H16" s="7">
-        <v>3</v>
+        <v>173</v>
       </c>
       <c r="I16" s="7">
-        <v>2035</v>
+        <v>121786</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="M16" s="7">
-        <v>6</v>
+        <v>334</v>
       </c>
       <c r="N16" s="7">
-        <v>4105</v>
+        <v>237218</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4875,49 +5433,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>5</v>
+        <v>78</v>
       </c>
       <c r="D17" s="7">
-        <v>3721</v>
+        <v>55613</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
       <c r="H17" s="7">
-        <v>3</v>
+        <v>77</v>
       </c>
       <c r="I17" s="7">
-        <v>2009</v>
+        <v>53065</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>17</v>
+        <v>268</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="M17" s="7">
-        <v>8</v>
+        <v>155</v>
       </c>
       <c r="N17" s="7">
-        <v>5730</v>
+        <v>108678</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4926,49 +5484,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D18" s="7">
-        <v>10160</v>
+        <v>5425</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>289</v>
+        <v>94</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="H18" s="7">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="I18" s="7">
-        <v>7967</v>
+        <v>3298</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>174</v>
+        <v>98</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="M18" s="7">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="N18" s="7">
-        <v>18127</v>
+        <v>8723</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>290</v>
+        <v>100</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4977,49 +5535,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>121</v>
+        <v>3</v>
       </c>
       <c r="D19" s="7">
-        <v>89259</v>
+        <v>2142</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>297</v>
+        <v>252</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="H19" s="7">
-        <v>129</v>
+        <v>1</v>
       </c>
       <c r="I19" s="7">
-        <v>89805</v>
+        <v>617</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>299</v>
+        <v>281</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>300</v>
+        <v>55</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="M19" s="7">
-        <v>250</v>
+        <v>4</v>
       </c>
       <c r="N19" s="7">
-        <v>179063</v>
+        <v>2759</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>302</v>
+        <v>52</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>303</v>
+        <v>283</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>304</v>
+        <v>284</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5028,49 +5586,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>227</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>168127</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>305</v>
+        <v>55</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>306</v>
+        <v>57</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="H20" s="7">
-        <v>216</v>
+        <v>2</v>
       </c>
       <c r="I20" s="7">
-        <v>156823</v>
+        <v>1409</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>308</v>
+        <v>286</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>309</v>
+        <v>55</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>310</v>
+        <v>287</v>
       </c>
       <c r="M20" s="7">
-        <v>443</v>
+        <v>2</v>
       </c>
       <c r="N20" s="7">
-        <v>324951</v>
+        <v>1409</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>312</v>
+        <v>55</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>313</v>
+        <v>288</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5079,102 +5637,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>370</v>
+        <v>250</v>
       </c>
       <c r="D21" s="7">
-        <v>273337</v>
+        <v>178611</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="H21" s="7">
-        <v>362</v>
+        <v>258</v>
       </c>
       <c r="I21" s="7">
-        <v>258639</v>
+        <v>180175</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="M21" s="7">
-        <v>732</v>
+        <v>508</v>
       </c>
       <c r="N21" s="7">
-        <v>531976</v>
+        <v>358786</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>3</v>
+        <v>133</v>
       </c>
       <c r="D22" s="7">
-        <v>2070</v>
+        <v>99238</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>314</v>
+        <v>289</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>315</v>
+        <v>290</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>316</v>
+        <v>291</v>
       </c>
       <c r="H22" s="7">
-        <v>3</v>
+        <v>127</v>
       </c>
       <c r="I22" s="7">
-        <v>2035</v>
+        <v>90907</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>314</v>
+        <v>292</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>167</v>
+        <v>293</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>317</v>
+        <v>294</v>
       </c>
       <c r="M22" s="7">
-        <v>6</v>
+        <v>260</v>
       </c>
       <c r="N22" s="7">
-        <v>4105</v>
+        <v>190145</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>318</v>
+        <v>296</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>319</v>
+        <v>297</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5183,49 +5741,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>7</v>
+        <v>79</v>
       </c>
       <c r="D23" s="7">
-        <v>5138</v>
+        <v>58060</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>204</v>
+        <v>298</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>320</v>
+        <v>299</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>321</v>
+        <v>300</v>
       </c>
       <c r="H23" s="7">
-        <v>3</v>
+        <v>94</v>
       </c>
       <c r="I23" s="7">
-        <v>2009</v>
+        <v>64572</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>322</v>
+        <v>30</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>167</v>
+        <v>301</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>143</v>
+        <v>302</v>
       </c>
       <c r="M23" s="7">
-        <v>10</v>
+        <v>173</v>
       </c>
       <c r="N23" s="7">
-        <v>7146</v>
+        <v>122632</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>53</v>
+        <v>303</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>164</v>
+        <v>304</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>323</v>
+        <v>305</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5234,49 +5792,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D24" s="7">
-        <v>13653</v>
+        <v>8229</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>325</v>
+        <v>307</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>326</v>
+        <v>308</v>
       </c>
       <c r="H24" s="7">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I24" s="7">
-        <v>10608</v>
+        <v>7310</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>327</v>
+        <v>205</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>328</v>
+        <v>309</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>329</v>
+        <v>310</v>
       </c>
       <c r="M24" s="7">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="N24" s="7">
-        <v>24261</v>
+        <v>15538</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>330</v>
+        <v>311</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>331</v>
+        <v>312</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>332</v>
+        <v>313</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5285,49 +5843,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>157</v>
+        <v>4</v>
       </c>
       <c r="D25" s="7">
-        <v>113672</v>
+        <v>2996</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>333</v>
+        <v>314</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>334</v>
+        <v>139</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>335</v>
+        <v>315</v>
       </c>
       <c r="H25" s="7">
-        <v>171</v>
+        <v>2</v>
       </c>
       <c r="I25" s="7">
-        <v>117637</v>
+        <v>1391</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>336</v>
+        <v>135</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>337</v>
+        <v>55</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="M25" s="7">
-        <v>328</v>
+        <v>6</v>
       </c>
       <c r="N25" s="7">
-        <v>231309</v>
+        <v>4388</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>339</v>
+        <v>317</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>340</v>
+        <v>318</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>341</v>
+        <v>319</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5336,49 +5894,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>294</v>
+        <v>3</v>
       </c>
       <c r="D26" s="7">
-        <v>214670</v>
+        <v>2070</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>342</v>
+        <v>210</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>343</v>
+        <v>281</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>344</v>
+        <v>320</v>
       </c>
       <c r="H26" s="7">
-        <v>300</v>
+        <v>1</v>
       </c>
       <c r="I26" s="7">
-        <v>212694</v>
+        <v>626</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>345</v>
+        <v>220</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>346</v>
+        <v>55</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>347</v>
+        <v>250</v>
       </c>
       <c r="M26" s="7">
-        <v>594</v>
+        <v>4</v>
       </c>
       <c r="N26" s="7">
-        <v>427363</v>
+        <v>2696</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>348</v>
+        <v>321</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>349</v>
+        <v>136</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>350</v>
+        <v>322</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5387,55 +5945,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>230</v>
+      </c>
+      <c r="D27" s="7">
+        <v>170592</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H27" s="7">
+        <v>234</v>
+      </c>
+      <c r="I27" s="7">
+        <v>164807</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="M27" s="7">
+        <v>464</v>
+      </c>
+      <c r="N27" s="7">
+        <v>335399</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>294</v>
+      </c>
+      <c r="D28" s="7">
+        <v>214670</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="H28" s="7">
+        <v>300</v>
+      </c>
+      <c r="I28" s="7">
+        <v>212694</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="M28" s="7">
+        <v>594</v>
+      </c>
+      <c r="N28" s="7">
+        <v>427363</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>157</v>
+      </c>
+      <c r="D29" s="7">
+        <v>113672</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="H29" s="7">
+        <v>171</v>
+      </c>
+      <c r="I29" s="7">
+        <v>117637</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="M29" s="7">
+        <v>328</v>
+      </c>
+      <c r="N29" s="7">
+        <v>231309</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>19</v>
+      </c>
+      <c r="D30" s="7">
+        <v>13653</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="H30" s="7">
+        <v>15</v>
+      </c>
+      <c r="I30" s="7">
+        <v>10608</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="M30" s="7">
+        <v>34</v>
+      </c>
+      <c r="N30" s="7">
+        <v>24261</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7">
+        <v>7</v>
+      </c>
+      <c r="D31" s="7">
+        <v>5138</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="H31" s="7">
+        <v>3</v>
+      </c>
+      <c r="I31" s="7">
+        <v>2009</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="M31" s="7">
+        <v>10</v>
+      </c>
+      <c r="N31" s="7">
+        <v>7146</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7">
+        <v>3</v>
+      </c>
+      <c r="D32" s="7">
+        <v>2070</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="H32" s="7">
+        <v>3</v>
+      </c>
+      <c r="I32" s="7">
+        <v>2035</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="M32" s="7">
+        <v>6</v>
+      </c>
+      <c r="N32" s="7">
+        <v>4105</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>480</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>349203</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H33" s="7">
         <v>492</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>344983</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="M33" s="7">
         <v>972</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>694185</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>51</v>
+      <c r="O33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP07C02-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07C02-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B37AE55-6555-4345-9F34-F33D1C0BE63A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B2792CF-9BFF-47A3-89F1-32625B1DF0F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{44FCF55F-114F-40C1-84D0-B858250E4769}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{506DC046-8488-42D6-81DD-2A0FFD8FB80A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="359">
   <si>
     <t>Menores según frecuencia de haber podido correr bien en 2007 (Tasa respuesta: 42,63%)</t>
   </si>
@@ -97,1018 +97,1024 @@
     <t>52,24%</t>
   </si>
   <si>
-    <t>45,32%</t>
-  </si>
-  <si>
-    <t>59,35%</t>
+    <t>44,97%</t>
+  </si>
+  <si>
+    <t>59,64%</t>
   </si>
   <si>
     <t>54,15%</t>
   </si>
   <si>
-    <t>46,01%</t>
-  </si>
-  <si>
-    <t>61,42%</t>
+    <t>46,3%</t>
+  </si>
+  <si>
+    <t>61,63%</t>
   </si>
   <si>
     <t>53,15%</t>
   </si>
   <si>
-    <t>47,12%</t>
-  </si>
-  <si>
-    <t>57,23%</t>
+    <t>47,83%</t>
+  </si>
+  <si>
+    <t>58,32%</t>
   </si>
   <si>
     <t>42,97%</t>
   </si>
   <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>50,47%</t>
+    <t>36,04%</t>
+  </si>
+  <si>
+    <t>50,71%</t>
   </si>
   <si>
     <t>39,18%</t>
   </si>
   <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>47,07%</t>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>46,85%</t>
   </si>
   <si>
     <t>41,17%</t>
   </si>
   <si>
-    <t>36,69%</t>
-  </si>
-  <si>
-    <t>46,87%</t>
+    <t>35,8%</t>
+  </si>
+  <si>
+    <t>46,17%</t>
   </si>
   <si>
     <t>2,15%</t>
   </si>
   <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>59,47%</t>
+  </si>
+  <si>
+    <t>53,83%</t>
+  </si>
+  <si>
+    <t>64,91%</t>
+  </si>
+  <si>
+    <t>52,27%</t>
+  </si>
+  <si>
+    <t>46,95%</t>
+  </si>
+  <si>
+    <t>58,66%</t>
+  </si>
+  <si>
+    <t>55,94%</t>
+  </si>
+  <si>
+    <t>60,45%</t>
+  </si>
+  <si>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>41,82%</t>
+  </si>
+  <si>
+    <t>41,99%</t>
+  </si>
+  <si>
+    <t>35,62%</t>
+  </si>
+  <si>
+    <t>47,3%</t>
+  </si>
+  <si>
+    <t>39,08%</t>
+  </si>
+  <si>
+    <t>34,53%</t>
+  </si>
+  <si>
+    <t>42,92%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>56,58%</t>
+  </si>
+  <si>
+    <t>52,41%</t>
+  </si>
+  <si>
+    <t>61,66%</t>
+  </si>
+  <si>
+    <t>53,0%</t>
+  </si>
+  <si>
+    <t>48,38%</t>
+  </si>
+  <si>
+    <t>57,45%</t>
+  </si>
+  <si>
+    <t>54,84%</t>
+  </si>
+  <si>
+    <t>51,59%</t>
+  </si>
+  <si>
+    <t>57,98%</t>
+  </si>
+  <si>
+    <t>38,96%</t>
+  </si>
+  <si>
+    <t>34,45%</t>
+  </si>
+  <si>
+    <t>43,64%</t>
+  </si>
+  <si>
+    <t>40,91%</t>
+  </si>
+  <si>
+    <t>36,56%</t>
+  </si>
+  <si>
+    <t>46,06%</t>
+  </si>
+  <si>
+    <t>39,9%</t>
+  </si>
+  <si>
+    <t>36,92%</t>
+  </si>
+  <si>
+    <t>43,32%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de haber podido correr bien en 2012 (Tasa respuesta: 43,69%)</t>
+  </si>
+  <si>
+    <t>52,11%</t>
+  </si>
+  <si>
+    <t>45,4%</t>
+  </si>
+  <si>
+    <t>58,48%</t>
+  </si>
+  <si>
+    <t>40,04%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>46,65%</t>
+  </si>
+  <si>
+    <t>46,2%</t>
+  </si>
+  <si>
+    <t>41,41%</t>
+  </si>
+  <si>
+    <t>51,0%</t>
+  </si>
+  <si>
+    <t>43,15%</t>
+  </si>
+  <si>
+    <t>36,47%</t>
+  </si>
+  <si>
+    <t>50,09%</t>
+  </si>
+  <si>
+    <t>53,99%</t>
+  </si>
+  <si>
+    <t>46,9%</t>
+  </si>
+  <si>
+    <t>61,04%</t>
+  </si>
+  <si>
+    <t>48,46%</t>
+  </si>
+  <si>
+    <t>43,36%</t>
+  </si>
+  <si>
+    <t>52,89%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>50,43%</t>
+  </si>
+  <si>
+    <t>44,11%</t>
+  </si>
+  <si>
+    <t>56,56%</t>
+  </si>
+  <si>
+    <t>33,69%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>39,92%</t>
+  </si>
+  <si>
+    <t>42,31%</t>
+  </si>
+  <si>
+    <t>38,29%</t>
+  </si>
+  <si>
+    <t>46,94%</t>
+  </si>
+  <si>
+    <t>41,83%</t>
+  </si>
+  <si>
+    <t>35,93%</t>
+  </si>
+  <si>
+    <t>48,28%</t>
+  </si>
+  <si>
+    <t>55,52%</t>
+  </si>
+  <si>
+    <t>49,3%</t>
+  </si>
+  <si>
+    <t>61,95%</t>
+  </si>
+  <si>
+    <t>48,47%</t>
+  </si>
+  <si>
+    <t>43,98%</t>
+  </si>
+  <si>
+    <t>52,64%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>51,23%</t>
+  </si>
+  <si>
+    <t>46,53%</t>
+  </si>
+  <si>
+    <t>55,57%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>41,19%</t>
+  </si>
+  <si>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>40,94%</t>
+  </si>
+  <si>
+    <t>47,44%</t>
+  </si>
+  <si>
+    <t>42,46%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>46,98%</t>
+  </si>
+  <si>
+    <t>54,78%</t>
+  </si>
+  <si>
+    <t>49,8%</t>
+  </si>
+  <si>
+    <t>59,22%</t>
+  </si>
+  <si>
+    <t>45,25%</t>
+  </si>
+  <si>
+    <t>51,96%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de haber podido correr bien en 2016 (Tasa respuesta: 45,72%)</t>
+  </si>
+  <si>
+    <t>64,63%</t>
+  </si>
+  <si>
+    <t>58,47%</t>
+  </si>
+  <si>
+    <t>70,45%</t>
+  </si>
+  <si>
+    <t>67,59%</t>
+  </si>
+  <si>
+    <t>61,99%</t>
+  </si>
+  <si>
+    <t>73,17%</t>
+  </si>
+  <si>
+    <t>66,12%</t>
+  </si>
+  <si>
+    <t>61,8%</t>
+  </si>
+  <si>
+    <t>69,89%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>36,77%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>35,21%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>34,42%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>58,17%</t>
+  </si>
+  <si>
+    <t>51,3%</t>
+  </si>
+  <si>
+    <t>64,46%</t>
+  </si>
+  <si>
+    <t>55,16%</t>
+  </si>
+  <si>
+    <t>48,26%</t>
+  </si>
+  <si>
+    <t>61,53%</t>
+  </si>
+  <si>
+    <t>56,69%</t>
+  </si>
+  <si>
+    <t>52,21%</t>
+  </si>
+  <si>
+    <t>61,76%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>40,09%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>45,58%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>41,1%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>61,47%</t>
+  </si>
+  <si>
+    <t>56,76%</t>
+  </si>
+  <si>
+    <t>65,82%</t>
+  </si>
+  <si>
+    <t>61,65%</t>
+  </si>
+  <si>
+    <t>56,92%</t>
+  </si>
+  <si>
+    <t>65,67%</t>
+  </si>
+  <si>
+    <t>61,56%</t>
+  </si>
+  <si>
+    <t>64,33%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>37,26%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>38,43%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
     <t>0,55%</t>
   </si>
   <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>59,47%</t>
-  </si>
-  <si>
-    <t>53,86%</t>
-  </si>
-  <si>
-    <t>65,26%</t>
-  </si>
-  <si>
-    <t>52,27%</t>
-  </si>
-  <si>
-    <t>46,02%</t>
-  </si>
-  <si>
-    <t>58,23%</t>
-  </si>
-  <si>
-    <t>55,94%</t>
-  </si>
-  <si>
-    <t>52,05%</t>
-  </si>
-  <si>
-    <t>60,13%</t>
-  </si>
-  <si>
-    <t>36,28%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>41,85%</t>
-  </si>
-  <si>
-    <t>41,99%</t>
-  </si>
-  <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>48,11%</t>
-  </si>
-  <si>
-    <t>39,08%</t>
-  </si>
-  <si>
-    <t>35,05%</t>
-  </si>
-  <si>
-    <t>42,9%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>56,58%</t>
-  </si>
-  <si>
-    <t>51,71%</t>
-  </si>
-  <si>
-    <t>60,95%</t>
-  </si>
-  <si>
-    <t>53,0%</t>
-  </si>
-  <si>
-    <t>48,4%</t>
-  </si>
-  <si>
-    <t>57,61%</t>
-  </si>
-  <si>
-    <t>54,84%</t>
-  </si>
-  <si>
-    <t>51,81%</t>
-  </si>
-  <si>
-    <t>58,27%</t>
-  </si>
-  <si>
-    <t>38,96%</t>
-  </si>
-  <si>
-    <t>34,67%</t>
-  </si>
-  <si>
-    <t>43,94%</t>
-  </si>
-  <si>
-    <t>40,91%</t>
-  </si>
-  <si>
-    <t>36,38%</t>
-  </si>
-  <si>
-    <t>45,59%</t>
-  </si>
-  <si>
-    <t>39,9%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
     <t>1,95%</t>
   </si>
   <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de haber podido correr bien en 2012 (Tasa respuesta: 43,69%)</t>
-  </si>
-  <si>
-    <t>52,11%</t>
-  </si>
-  <si>
-    <t>45,49%</t>
-  </si>
-  <si>
-    <t>59,09%</t>
-  </si>
-  <si>
-    <t>40,04%</t>
-  </si>
-  <si>
-    <t>33,74%</t>
-  </si>
-  <si>
-    <t>46,65%</t>
-  </si>
-  <si>
-    <t>46,2%</t>
-  </si>
-  <si>
-    <t>41,79%</t>
-  </si>
-  <si>
-    <t>50,63%</t>
-  </si>
-  <si>
-    <t>43,15%</t>
-  </si>
-  <si>
-    <t>36,59%</t>
-  </si>
-  <si>
-    <t>49,87%</t>
-  </si>
-  <si>
-    <t>53,99%</t>
-  </si>
-  <si>
-    <t>47,13%</t>
-  </si>
-  <si>
-    <t>60,71%</t>
-  </si>
-  <si>
-    <t>48,46%</t>
-  </si>
-  <si>
-    <t>43,81%</t>
-  </si>
-  <si>
-    <t>52,94%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>50,43%</t>
-  </si>
-  <si>
-    <t>44,27%</t>
-  </si>
-  <si>
-    <t>57,05%</t>
-  </si>
-  <si>
-    <t>33,69%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>39,6%</t>
-  </si>
-  <si>
-    <t>42,31%</t>
-  </si>
-  <si>
-    <t>37,9%</t>
-  </si>
-  <si>
-    <t>46,51%</t>
-  </si>
-  <si>
-    <t>41,83%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
-  </si>
-  <si>
-    <t>48,1%</t>
-  </si>
-  <si>
-    <t>55,52%</t>
-  </si>
-  <si>
-    <t>49,65%</t>
-  </si>
-  <si>
-    <t>61,84%</t>
-  </si>
-  <si>
-    <t>48,47%</t>
-  </si>
-  <si>
-    <t>44,32%</t>
-  </si>
-  <si>
-    <t>53,21%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>51,23%</t>
-  </si>
-  <si>
-    <t>46,99%</t>
-  </si>
-  <si>
-    <t>55,65%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>41,27%</t>
-  </si>
-  <si>
-    <t>44,17%</t>
-  </si>
-  <si>
-    <t>40,63%</t>
-  </si>
-  <si>
-    <t>47,42%</t>
-  </si>
-  <si>
-    <t>42,46%</t>
-  </si>
-  <si>
-    <t>38,34%</t>
-  </si>
-  <si>
-    <t>46,69%</t>
-  </si>
-  <si>
-    <t>54,78%</t>
-  </si>
-  <si>
-    <t>49,34%</t>
-  </si>
-  <si>
-    <t>59,11%</t>
-  </si>
-  <si>
-    <t>45,14%</t>
-  </si>
-  <si>
-    <t>51,75%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de haber podido correr bien en 2015 (Tasa respuesta: 45,72%)</t>
-  </si>
-  <si>
-    <t>64,63%</t>
-  </si>
-  <si>
-    <t>58,83%</t>
-  </si>
-  <si>
-    <t>70,36%</t>
-  </si>
-  <si>
-    <t>67,59%</t>
-  </si>
-  <si>
-    <t>62,35%</t>
-  </si>
-  <si>
-    <t>73,29%</t>
-  </si>
-  <si>
-    <t>66,12%</t>
-  </si>
-  <si>
-    <t>61,77%</t>
-  </si>
-  <si>
-    <t>69,71%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>36,96%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>34,92%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>58,17%</t>
-  </si>
-  <si>
-    <t>51,93%</t>
-  </si>
-  <si>
-    <t>64,54%</t>
-  </si>
-  <si>
-    <t>55,16%</t>
-  </si>
-  <si>
-    <t>48,83%</t>
-  </si>
-  <si>
-    <t>61,69%</t>
-  </si>
-  <si>
-    <t>56,69%</t>
-  </si>
-  <si>
-    <t>51,67%</t>
-  </si>
-  <si>
-    <t>60,8%</t>
-  </si>
-  <si>
-    <t>34,03%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>40,55%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>45,4%</t>
-  </si>
-  <si>
-    <t>36,56%</t>
-  </si>
-  <si>
-    <t>32,42%</t>
-  </si>
-  <si>
-    <t>41,21%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>61,47%</t>
-  </si>
-  <si>
-    <t>57,3%</t>
-  </si>
-  <si>
-    <t>65,6%</t>
-  </si>
-  <si>
-    <t>61,65%</t>
-  </si>
-  <si>
-    <t>56,91%</t>
-  </si>
-  <si>
-    <t>65,94%</t>
-  </si>
-  <si>
-    <t>61,56%</t>
-  </si>
-  <si>
-    <t>58,44%</t>
-  </si>
-  <si>
-    <t>64,79%</t>
-  </si>
-  <si>
-    <t>32,55%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>36,91%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>38,59%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>36,33%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
     <t>0,59%</t>
   </si>
   <si>
     <t>0,17%</t>
   </si>
   <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
   </si>
 </sst>
 </file>
@@ -1520,7 +1526,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F3C5C4A-B679-4752-8BF2-44E22DCA1A1A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F714F27E-A426-4BD9-AF61-8213BB68D835}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2529,10 +2535,10 @@
         <v>69</v>
       </c>
       <c r="P22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2547,13 +2553,13 @@
         <v>67348</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="H23" s="7">
         <v>111</v>
@@ -2562,13 +2568,13 @@
         <v>75133</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="M23" s="7">
         <v>212</v>
@@ -2577,13 +2583,13 @@
         <v>142482</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2598,13 +2604,13 @@
         <v>5237</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="H24" s="7">
         <v>12</v>
@@ -2613,13 +2619,13 @@
         <v>8257</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="M24" s="7">
         <v>20</v>
@@ -2628,13 +2634,13 @@
         <v>13494</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2649,13 +2655,13 @@
         <v>1323</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>55</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -2664,13 +2670,13 @@
         <v>2012</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M25" s="7">
         <v>5</v>
@@ -2679,10 +2685,10 @@
         <v>3335</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>96</v>
@@ -2700,13 +2706,13 @@
         <v>1314</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>55</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -2721,7 +2727,7 @@
         <v>57</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M26" s="7">
         <v>2</v>
@@ -2730,13 +2736,13 @@
         <v>1314</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>55</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2804,13 +2810,13 @@
         <v>174895</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="H28" s="7">
         <v>229</v>
@@ -2819,13 +2825,13 @@
         <v>154030</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="M28" s="7">
         <v>495</v>
@@ -2834,13 +2840,13 @@
         <v>328925</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2855,13 +2861,13 @@
         <v>120408</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="H29" s="7">
         <v>177</v>
@@ -2870,13 +2876,13 @@
         <v>118906</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="M29" s="7">
         <v>355</v>
@@ -2885,13 +2891,13 @@
         <v>239314</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2906,13 +2912,13 @@
         <v>7895</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="H30" s="7">
         <v>19</v>
@@ -2921,13 +2927,13 @@
         <v>13083</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="M30" s="7">
         <v>31</v>
@@ -2936,13 +2942,13 @@
         <v>20978</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2957,13 +2963,13 @@
         <v>3315</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H31" s="7">
         <v>7</v>
@@ -2972,13 +2978,13 @@
         <v>4627</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M31" s="7">
         <v>12</v>
@@ -2987,13 +2993,13 @@
         <v>7942</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3008,13 +3014,13 @@
         <v>2582</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -3029,7 +3035,7 @@
         <v>57</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="M32" s="7">
         <v>4</v>
@@ -3038,13 +3044,13 @@
         <v>2582</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3100,7 +3106,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -3120,7 +3126,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F05A308-FCA7-479A-BA90-AD95566A769E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6E7ECED-45F5-4296-AA64-F1DC502A5A9E}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3137,7 +3143,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3788,13 +3794,13 @@
         <v>80999</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H16" s="7">
         <v>87</v>
@@ -3803,13 +3809,13 @@
         <v>59782</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M16" s="7">
         <v>204</v>
@@ -3818,13 +3824,13 @@
         <v>140781</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3839,13 +3845,13 @@
         <v>67069</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="H17" s="7">
         <v>113</v>
@@ -3854,13 +3860,13 @@
         <v>80596</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="M17" s="7">
         <v>208</v>
@@ -3869,13 +3875,13 @@
         <v>147665</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3890,13 +3896,13 @@
         <v>5972</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H18" s="7">
         <v>9</v>
@@ -3905,13 +3911,13 @@
         <v>6600</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>166</v>
+        <v>96</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="M18" s="7">
         <v>18</v>
@@ -3920,13 +3926,13 @@
         <v>12572</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>169</v>
+        <v>90</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3941,13 +3947,13 @@
         <v>564</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>55</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -3956,13 +3962,13 @@
         <v>1287</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>55</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="M19" s="7">
         <v>3</v>
@@ -3971,13 +3977,13 @@
         <v>1851</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3992,13 +3998,13 @@
         <v>823</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>177</v>
+        <v>37</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>55</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -4007,13 +4013,13 @@
         <v>1024</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>55</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="M20" s="7">
         <v>3</v>
@@ -4022,13 +4028,13 @@
         <v>1847</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>96</v>
+        <v>176</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4096,13 +4102,13 @@
         <v>86414</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="H22" s="7">
         <v>77</v>
@@ -4111,13 +4117,13 @@
         <v>54408</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="M22" s="7">
         <v>205</v>
@@ -4126,13 +4132,13 @@
         <v>140822</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4147,13 +4153,13 @@
         <v>71666</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="H23" s="7">
         <v>128</v>
@@ -4162,13 +4168,13 @@
         <v>89669</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="M23" s="7">
         <v>232</v>
@@ -4177,13 +4183,13 @@
         <v>161336</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4198,13 +4204,13 @@
         <v>6344</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="H24" s="7">
         <v>20</v>
@@ -4213,13 +4219,13 @@
         <v>14820</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="M24" s="7">
         <v>30</v>
@@ -4228,13 +4234,13 @@
         <v>21165</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4249,13 +4255,13 @@
         <v>4246</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>209</v>
+        <v>125</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -4264,13 +4270,13 @@
         <v>1954</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="M25" s="7">
         <v>9</v>
@@ -4279,13 +4285,13 @@
         <v>6200</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>95</v>
+        <v>168</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4300,13 +4306,13 @@
         <v>2669</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -4315,13 +4321,13 @@
         <v>656</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>128</v>
+        <v>213</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>55</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="M26" s="7">
         <v>5</v>
@@ -4330,13 +4336,13 @@
         <v>3325</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>91</v>
+        <v>217</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4404,13 +4410,13 @@
         <v>167413</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="H28" s="7">
         <v>164</v>
@@ -4419,13 +4425,13 @@
         <v>114190</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="M28" s="7">
         <v>409</v>
@@ -4434,13 +4440,13 @@
         <v>281602</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4455,13 +4461,13 @@
         <v>138735</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="H29" s="7">
         <v>241</v>
@@ -4470,13 +4476,13 @@
         <v>170266</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="M29" s="7">
         <v>440</v>
@@ -4485,13 +4491,13 @@
         <v>309001</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4506,13 +4512,13 @@
         <v>12316</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>48</v>
+        <v>236</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="H30" s="7">
         <v>29</v>
@@ -4521,13 +4527,13 @@
         <v>21420</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="M30" s="7">
         <v>48</v>
@@ -4536,13 +4542,13 @@
         <v>33736</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4557,13 +4563,13 @@
         <v>4810</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>245</v>
+        <v>118</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="H31" s="7">
         <v>5</v>
@@ -4572,13 +4578,13 @@
         <v>3241</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>128</v>
+        <v>213</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="M31" s="7">
         <v>12</v>
@@ -4587,13 +4593,13 @@
         <v>8051</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>100</v>
+        <v>247</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>90</v>
+        <v>248</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>91</v>
+        <v>249</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4608,10 +4614,10 @@
         <v>3492</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>250</v>
@@ -4626,10 +4632,10 @@
         <v>59</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="M32" s="7">
         <v>8</v>
@@ -4638,13 +4644,13 @@
         <v>5172</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4700,7 +4706,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -4720,7 +4726,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1DD91E5-CE0E-411D-A3A0-72FF58C34EB1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47F9AB4A-1AEE-40B9-9849-38632E80F389}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4737,7 +4743,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5388,13 +5394,13 @@
         <v>115432</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H16" s="7">
         <v>173</v>
@@ -5403,13 +5409,13 @@
         <v>121786</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M16" s="7">
         <v>334</v>
@@ -5418,13 +5424,13 @@
         <v>237218</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5439,13 +5445,13 @@
         <v>55613</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H17" s="7">
         <v>77</v>
@@ -5454,13 +5460,13 @@
         <v>53065</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M17" s="7">
         <v>155</v>
@@ -5469,13 +5475,13 @@
         <v>108678</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5490,13 +5496,13 @@
         <v>5425</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>94</v>
+        <v>274</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="H18" s="7">
         <v>5</v>
@@ -5505,13 +5511,13 @@
         <v>3298</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>275</v>
+        <v>40</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>98</v>
+        <v>277</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
       <c r="M18" s="7">
         <v>13</v>
@@ -5520,13 +5526,13 @@
         <v>8723</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>100</v>
+        <v>279</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5541,13 +5547,13 @@
         <v>2142</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>252</v>
+        <v>95</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -5556,13 +5562,13 @@
         <v>617</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>55</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
@@ -5571,13 +5577,13 @@
         <v>2759</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>52</v>
+        <v>285</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5598,7 +5604,7 @@
         <v>57</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -5607,13 +5613,13 @@
         <v>1409</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>55</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>287</v>
+        <v>244</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -5622,13 +5628,13 @@
         <v>1409</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>55</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5696,13 +5702,13 @@
         <v>99238</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H22" s="7">
         <v>127</v>
@@ -5711,13 +5717,13 @@
         <v>90907</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="M22" s="7">
         <v>260</v>
@@ -5726,13 +5732,13 @@
         <v>190145</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5747,13 +5753,13 @@
         <v>58060</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="H23" s="7">
         <v>94</v>
@@ -5765,10 +5771,10 @@
         <v>30</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M23" s="7">
         <v>173</v>
@@ -5777,13 +5783,13 @@
         <v>122632</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>303</v>
+        <v>112</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5798,10 +5804,10 @@
         <v>8229</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>307</v>
+        <v>236</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>308</v>
@@ -5813,13 +5819,13 @@
         <v>7310</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>205</v>
+        <v>309</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M24" s="7">
         <v>21</v>
@@ -5828,13 +5834,13 @@
         <v>15538</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5849,13 +5855,13 @@
         <v>2996</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -5864,13 +5870,13 @@
         <v>1391</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>135</v>
+        <v>52</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>55</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M25" s="7">
         <v>6</v>
@@ -5879,13 +5885,13 @@
         <v>4388</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5900,13 +5906,13 @@
         <v>2070</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>281</v>
+        <v>92</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -5915,13 +5921,13 @@
         <v>626</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>55</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>250</v>
+        <v>322</v>
       </c>
       <c r="M26" s="7">
         <v>4</v>
@@ -5930,13 +5936,13 @@
         <v>2696</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6004,13 +6010,13 @@
         <v>214670</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="H28" s="7">
         <v>300</v>
@@ -6019,13 +6025,13 @@
         <v>212694</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="M28" s="7">
         <v>594</v>
@@ -6034,13 +6040,13 @@
         <v>427363</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>330</v>
+        <v>26</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6055,13 +6061,13 @@
         <v>113672</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H29" s="7">
         <v>171</v>
@@ -6070,13 +6076,13 @@
         <v>117637</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M29" s="7">
         <v>328</v>
@@ -6085,13 +6091,13 @@
         <v>231309</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6106,10 +6112,10 @@
         <v>13653</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>342</v>
+        <v>250</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>343</v>
@@ -6139,10 +6145,10 @@
         <v>347</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>249</v>
+        <v>348</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6157,10 +6163,10 @@
         <v>5138</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>245</v>
+        <v>118</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>349</v>
+        <v>243</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>350</v>
@@ -6172,13 +6178,13 @@
         <v>2009</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>49</v>
+        <v>319</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>175</v>
+        <v>351</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M31" s="7">
         <v>10</v>
@@ -6190,10 +6196,10 @@
         <v>54</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>46</v>
+        <v>353</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>314</v>
+        <v>354</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6208,13 +6214,13 @@
         <v>2070</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="H32" s="7">
         <v>3</v>
@@ -6223,13 +6229,13 @@
         <v>2035</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>175</v>
+        <v>351</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>355</v>
+        <v>45</v>
       </c>
       <c r="M32" s="7">
         <v>6</v>
@@ -6238,13 +6244,13 @@
         <v>4105</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>283</v>
+        <v>134</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6300,7 +6306,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07C02-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07C02-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B2792CF-9BFF-47A3-89F1-32625B1DF0F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{71F760B3-82DC-4974-9E01-3D850D6A82CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{506DC046-8488-42D6-81DD-2A0FFD8FB80A}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{027753FD-BFB2-451A-8FFB-2274FC5F0FFA}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="369">
   <si>
     <t>Menores según frecuencia de haber podido correr bien en 2007 (Tasa respuesta: 42,63%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -94,1027 +94,1057 @@
     <t>8-11</t>
   </si>
   <si>
+    <t>54,15%</t>
+  </si>
+  <si>
+    <t>46,09%</t>
+  </si>
+  <si>
+    <t>61,26%</t>
+  </si>
+  <si>
     <t>52,24%</t>
   </si>
   <si>
-    <t>44,97%</t>
-  </si>
-  <si>
-    <t>59,64%</t>
-  </si>
-  <si>
-    <t>54,15%</t>
-  </si>
-  <si>
-    <t>46,3%</t>
-  </si>
-  <si>
-    <t>61,63%</t>
+    <t>45,9%</t>
+  </si>
+  <si>
+    <t>59,88%</t>
   </si>
   <si>
     <t>53,15%</t>
   </si>
   <si>
-    <t>47,83%</t>
-  </si>
-  <si>
-    <t>58,32%</t>
+    <t>48,44%</t>
+  </si>
+  <si>
+    <t>58,76%</t>
+  </si>
+  <si>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>32,42%</t>
+  </si>
+  <si>
+    <t>46,88%</t>
   </si>
   <si>
     <t>42,97%</t>
   </si>
   <si>
-    <t>36,04%</t>
-  </si>
-  <si>
-    <t>50,71%</t>
-  </si>
-  <si>
-    <t>39,18%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>46,85%</t>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>49,78%</t>
   </si>
   <si>
     <t>41,17%</t>
   </si>
   <si>
-    <t>35,8%</t>
-  </si>
-  <si>
-    <t>46,17%</t>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>45,81%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
   </si>
   <si>
     <t>2,15%</t>
   </si>
   <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>52,27%</t>
+  </si>
+  <si>
+    <t>46,76%</t>
+  </si>
+  <si>
+    <t>59,0%</t>
+  </si>
+  <si>
+    <t>59,47%</t>
+  </si>
+  <si>
+    <t>53,98%</t>
+  </si>
+  <si>
+    <t>65,54%</t>
+  </si>
+  <si>
+    <t>55,94%</t>
+  </si>
+  <si>
+    <t>51,67%</t>
+  </si>
+  <si>
+    <t>60,24%</t>
+  </si>
+  <si>
+    <t>41,99%</t>
+  </si>
+  <si>
+    <t>35,84%</t>
+  </si>
+  <si>
+    <t>47,67%</t>
+  </si>
+  <si>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>42,12%</t>
+  </si>
+  <si>
+    <t>39,08%</t>
+  </si>
+  <si>
+    <t>35,0%</t>
+  </si>
+  <si>
+    <t>42,99%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>53,0%</t>
+  </si>
+  <si>
+    <t>48,3%</t>
+  </si>
+  <si>
+    <t>57,69%</t>
+  </si>
+  <si>
+    <t>56,58%</t>
+  </si>
+  <si>
+    <t>51,76%</t>
+  </si>
+  <si>
+    <t>61,05%</t>
+  </si>
+  <si>
+    <t>54,84%</t>
+  </si>
+  <si>
+    <t>57,77%</t>
+  </si>
+  <si>
+    <t>40,91%</t>
+  </si>
+  <si>
+    <t>36,16%</t>
+  </si>
+  <si>
+    <t>45,54%</t>
+  </si>
+  <si>
+    <t>38,96%</t>
+  </si>
+  <si>
+    <t>34,75%</t>
+  </si>
+  <si>
+    <t>44,01%</t>
+  </si>
+  <si>
+    <t>39,9%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>43,13%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de haber podido correr bien en 2012 (Tasa respuesta: 43,69%)</t>
+  </si>
+  <si>
+    <t>40,04%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>46,73%</t>
+  </si>
+  <si>
+    <t>52,11%</t>
+  </si>
+  <si>
+    <t>58,36%</t>
+  </si>
+  <si>
+    <t>46,2%</t>
+  </si>
+  <si>
+    <t>41,78%</t>
+  </si>
+  <si>
+    <t>51,02%</t>
+  </si>
+  <si>
+    <t>53,99%</t>
+  </si>
+  <si>
+    <t>47,17%</t>
+  </si>
+  <si>
+    <t>61,2%</t>
+  </si>
+  <si>
+    <t>43,15%</t>
+  </si>
+  <si>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>49,47%</t>
+  </si>
+  <si>
+    <t>48,46%</t>
+  </si>
+  <si>
+    <t>43,53%</t>
+  </si>
+  <si>
+    <t>53,05%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
     <t>0,53%</t>
   </si>
   <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>33,69%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>40,49%</t>
+  </si>
+  <si>
+    <t>50,43%</t>
+  </si>
+  <si>
+    <t>43,7%</t>
+  </si>
+  <si>
+    <t>56,5%</t>
+  </si>
+  <si>
+    <t>42,31%</t>
+  </si>
+  <si>
+    <t>38,13%</t>
+  </si>
+  <si>
+    <t>47,06%</t>
+  </si>
+  <si>
+    <t>55,52%</t>
+  </si>
+  <si>
+    <t>48,89%</t>
+  </si>
+  <si>
+    <t>62,02%</t>
+  </si>
+  <si>
+    <t>41,83%</t>
+  </si>
+  <si>
+    <t>35,99%</t>
+  </si>
+  <si>
+    <t>48,18%</t>
+  </si>
+  <si>
+    <t>48,47%</t>
+  </si>
+  <si>
+    <t>43,97%</t>
+  </si>
+  <si>
+    <t>52,94%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>41,42%</t>
+  </si>
+  <si>
+    <t>51,23%</t>
+  </si>
+  <si>
+    <t>46,82%</t>
+  </si>
+  <si>
+    <t>55,7%</t>
+  </si>
+  <si>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>41,06%</t>
+  </si>
+  <si>
+    <t>47,54%</t>
+  </si>
+  <si>
+    <t>54,78%</t>
+  </si>
+  <si>
+    <t>49,83%</t>
+  </si>
+  <si>
+    <t>59,38%</t>
+  </si>
+  <si>
+    <t>42,46%</t>
+  </si>
+  <si>
+    <t>37,95%</t>
+  </si>
+  <si>
+    <t>46,89%</t>
+  </si>
+  <si>
+    <t>45,11%</t>
+  </si>
+  <si>
+    <t>51,66%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de haber podido correr bien en 2016 (Tasa respuesta: 45,72%)</t>
+  </si>
+  <si>
+    <t>67,59%</t>
+  </si>
+  <si>
+    <t>61,84%</t>
+  </si>
+  <si>
+    <t>73,35%</t>
+  </si>
+  <si>
+    <t>64,63%</t>
+  </si>
+  <si>
+    <t>58,91%</t>
+  </si>
+  <si>
+    <t>70,09%</t>
+  </si>
+  <si>
+    <t>66,12%</t>
+  </si>
+  <si>
+    <t>62,33%</t>
+  </si>
+  <si>
+    <t>70,11%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>36,81%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
   </si>
   <si>
     <t>1,83%</t>
   </si>
   <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>59,47%</t>
-  </si>
-  <si>
-    <t>53,83%</t>
-  </si>
-  <si>
-    <t>64,91%</t>
-  </si>
-  <si>
-    <t>52,27%</t>
-  </si>
-  <si>
-    <t>46,95%</t>
-  </si>
-  <si>
-    <t>58,66%</t>
-  </si>
-  <si>
-    <t>55,94%</t>
-  </si>
-  <si>
-    <t>60,45%</t>
-  </si>
-  <si>
-    <t>36,28%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>41,82%</t>
-  </si>
-  <si>
-    <t>41,99%</t>
-  </si>
-  <si>
-    <t>35,62%</t>
-  </si>
-  <si>
-    <t>47,3%</t>
-  </si>
-  <si>
-    <t>39,08%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>42,92%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>56,58%</t>
-  </si>
-  <si>
-    <t>52,41%</t>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>55,16%</t>
+  </si>
+  <si>
+    <t>48,59%</t>
   </si>
   <si>
     <t>61,66%</t>
   </si>
   <si>
-    <t>53,0%</t>
-  </si>
-  <si>
-    <t>48,38%</t>
-  </si>
-  <si>
-    <t>57,45%</t>
-  </si>
-  <si>
-    <t>54,84%</t>
+    <t>58,17%</t>
   </si>
   <si>
     <t>51,59%</t>
   </si>
   <si>
-    <t>57,98%</t>
-  </si>
-  <si>
-    <t>38,96%</t>
-  </si>
-  <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>43,64%</t>
-  </si>
-  <si>
-    <t>40,91%</t>
+    <t>64,86%</t>
+  </si>
+  <si>
+    <t>56,69%</t>
+  </si>
+  <si>
+    <t>52,17%</t>
+  </si>
+  <si>
+    <t>61,23%</t>
+  </si>
+  <si>
+    <t>32,86%</t>
+  </si>
+  <si>
+    <t>45,56%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
   </si>
   <si>
     <t>36,56%</t>
   </si>
   <si>
-    <t>46,06%</t>
-  </si>
-  <si>
-    <t>39,9%</t>
-  </si>
-  <si>
-    <t>36,92%</t>
-  </si>
-  <si>
-    <t>43,32%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
+    <t>32,28%</t>
+  </si>
+  <si>
+    <t>41,08%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
   </si>
   <si>
     <t>4,26%</t>
   </si>
   <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>61,65%</t>
+  </si>
+  <si>
+    <t>57,12%</t>
+  </si>
+  <si>
+    <t>65,71%</t>
+  </si>
+  <si>
+    <t>61,47%</t>
+  </si>
+  <si>
+    <t>56,96%</t>
+  </si>
+  <si>
+    <t>65,79%</t>
+  </si>
+  <si>
+    <t>61,56%</t>
+  </si>
+  <si>
+    <t>58,73%</t>
+  </si>
+  <si>
+    <t>64,51%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>38,49%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>36,73%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>30,36%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
   </si>
   <si>
     <t>2,45%</t>
   </si>
   <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de haber podido correr bien en 2012 (Tasa respuesta: 43,69%)</t>
-  </si>
-  <si>
-    <t>52,11%</t>
-  </si>
-  <si>
-    <t>45,4%</t>
-  </si>
-  <si>
-    <t>58,48%</t>
-  </si>
-  <si>
-    <t>40,04%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>46,65%</t>
-  </si>
-  <si>
-    <t>46,2%</t>
-  </si>
-  <si>
-    <t>41,41%</t>
-  </si>
-  <si>
-    <t>51,0%</t>
-  </si>
-  <si>
-    <t>43,15%</t>
-  </si>
-  <si>
-    <t>36,47%</t>
-  </si>
-  <si>
-    <t>50,09%</t>
-  </si>
-  <si>
-    <t>53,99%</t>
-  </si>
-  <si>
-    <t>46,9%</t>
-  </si>
-  <si>
-    <t>61,04%</t>
-  </si>
-  <si>
-    <t>48,46%</t>
-  </si>
-  <si>
-    <t>43,36%</t>
-  </si>
-  <si>
-    <t>52,89%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
   </si>
   <si>
     <t>1,77%</t>
   </si>
   <si>
-    <t>50,43%</t>
-  </si>
-  <si>
-    <t>44,11%</t>
-  </si>
-  <si>
-    <t>56,56%</t>
-  </si>
-  <si>
-    <t>33,69%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>39,92%</t>
-  </si>
-  <si>
-    <t>42,31%</t>
-  </si>
-  <si>
-    <t>38,29%</t>
-  </si>
-  <si>
-    <t>46,94%</t>
-  </si>
-  <si>
-    <t>41,83%</t>
-  </si>
-  <si>
-    <t>35,93%</t>
-  </si>
-  <si>
-    <t>48,28%</t>
-  </si>
-  <si>
-    <t>55,52%</t>
-  </si>
-  <si>
-    <t>49,3%</t>
-  </si>
-  <si>
-    <t>61,95%</t>
-  </si>
-  <si>
-    <t>48,47%</t>
-  </si>
-  <si>
-    <t>43,98%</t>
-  </si>
-  <si>
-    <t>52,64%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>51,23%</t>
-  </si>
-  <si>
-    <t>46,53%</t>
-  </si>
-  <si>
-    <t>55,57%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>41,19%</t>
-  </si>
-  <si>
-    <t>44,17%</t>
-  </si>
-  <si>
-    <t>40,94%</t>
-  </si>
-  <si>
-    <t>47,44%</t>
-  </si>
-  <si>
-    <t>42,46%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>54,78%</t>
-  </si>
-  <si>
-    <t>49,8%</t>
-  </si>
-  <si>
-    <t>59,22%</t>
-  </si>
-  <si>
-    <t>45,25%</t>
-  </si>
-  <si>
-    <t>51,96%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
   </si>
   <si>
     <t>1,58%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de haber podido correr bien en 2016 (Tasa respuesta: 45,72%)</t>
-  </si>
-  <si>
-    <t>64,63%</t>
-  </si>
-  <si>
-    <t>58,47%</t>
-  </si>
-  <si>
-    <t>70,45%</t>
-  </si>
-  <si>
-    <t>67,59%</t>
-  </si>
-  <si>
-    <t>61,99%</t>
-  </si>
-  <si>
-    <t>73,17%</t>
-  </si>
-  <si>
-    <t>66,12%</t>
-  </si>
-  <si>
-    <t>61,8%</t>
-  </si>
-  <si>
-    <t>69,89%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>36,77%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>35,21%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>58,17%</t>
-  </si>
-  <si>
-    <t>51,3%</t>
-  </si>
-  <si>
-    <t>64,46%</t>
-  </si>
-  <si>
-    <t>55,16%</t>
-  </si>
-  <si>
-    <t>48,26%</t>
-  </si>
-  <si>
-    <t>61,53%</t>
-  </si>
-  <si>
-    <t>56,69%</t>
-  </si>
-  <si>
-    <t>52,21%</t>
-  </si>
-  <si>
-    <t>61,76%</t>
-  </si>
-  <si>
-    <t>34,03%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>40,09%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>45,58%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>41,1%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>61,47%</t>
-  </si>
-  <si>
-    <t>56,76%</t>
-  </si>
-  <si>
-    <t>65,82%</t>
-  </si>
-  <si>
-    <t>61,65%</t>
-  </si>
-  <si>
-    <t>56,92%</t>
-  </si>
-  <si>
-    <t>65,67%</t>
-  </si>
-  <si>
-    <t>61,56%</t>
-  </si>
-  <si>
-    <t>64,33%</t>
-  </si>
-  <si>
-    <t>32,55%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>37,26%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>38,43%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
   </si>
 </sst>
 </file>
@@ -1526,7 +1556,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F714F27E-A426-4BD9-AF61-8213BB68D835}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{953C3E52-607A-48AA-8D2A-6A3FE976A1D0}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2188,10 +2218,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="D16" s="7">
-        <v>64504</v>
+        <v>60497</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>18</v>
@@ -2203,10 +2233,10 @@
         <v>20</v>
       </c>
       <c r="H16" s="7">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="I16" s="7">
-        <v>60497</v>
+        <v>64504</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>21</v>
@@ -2239,10 +2269,10 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="D17" s="7">
-        <v>53060</v>
+        <v>43773</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>27</v>
@@ -2254,10 +2284,10 @@
         <v>29</v>
       </c>
       <c r="H17" s="7">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="I17" s="7">
-        <v>43773</v>
+        <v>53060</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>30</v>
@@ -2290,10 +2320,10 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D18" s="7">
-        <v>2658</v>
+        <v>4826</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>36</v>
@@ -2305,10 +2335,10 @@
         <v>38</v>
       </c>
       <c r="H18" s="7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I18" s="7">
-        <v>4826</v>
+        <v>2658</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>39</v>
@@ -2341,10 +2371,10 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19" s="7">
-        <v>1991</v>
+        <v>2615</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>45</v>
@@ -2356,10 +2386,10 @@
         <v>47</v>
       </c>
       <c r="H19" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I19" s="7">
-        <v>2615</v>
+        <v>1991</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>48</v>
@@ -2392,10 +2422,10 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>1268</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>54</v>
@@ -2407,16 +2437,16 @@
         <v>56</v>
       </c>
       <c r="H20" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" s="7">
-        <v>0</v>
+        <v>1268</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>58</v>
@@ -2428,13 +2458,13 @@
         <v>1268</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2443,34 +2473,34 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>168</v>
+      </c>
+      <c r="D21" s="7">
+        <v>111711</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H21" s="7">
         <v>186</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>123481</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H21" s="7">
-        <v>168</v>
-      </c>
-      <c r="I21" s="7">
-        <v>111711</v>
-      </c>
       <c r="J21" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
         <v>354</v>
@@ -2479,51 +2509,51 @@
         <v>235192</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>138</v>
+      </c>
+      <c r="D22" s="7">
+        <v>93533</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H22" s="7">
         <v>166</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>110391</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="G22" s="7" t="s">
+      <c r="J22" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="H22" s="7">
-        <v>138</v>
-      </c>
-      <c r="I22" s="7">
-        <v>93533</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="M22" s="7">
         <v>304</v>
@@ -2532,10 +2562,10 @@
         <v>203924</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>18</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>70</v>
@@ -2547,10 +2577,10 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="D23" s="7">
-        <v>67348</v>
+        <v>75133</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>71</v>
@@ -2562,10 +2592,10 @@
         <v>73</v>
       </c>
       <c r="H23" s="7">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="I23" s="7">
-        <v>75133</v>
+        <v>67348</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>74</v>
@@ -2598,10 +2628,10 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D24" s="7">
-        <v>5237</v>
+        <v>8257</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>80</v>
@@ -2613,10 +2643,10 @@
         <v>82</v>
       </c>
       <c r="H24" s="7">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I24" s="7">
-        <v>8257</v>
+        <v>5237</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>83</v>
@@ -2649,34 +2679,34 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" s="7">
-        <v>1323</v>
+        <v>2012</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>89</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H25" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I25" s="7">
-        <v>2012</v>
+        <v>1323</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>91</v>
+        <v>46</v>
       </c>
       <c r="K25" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M25" s="7">
         <v>5</v>
@@ -2685,13 +2715,13 @@
         <v>3335</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2700,31 +2730,31 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D26" s="7">
-        <v>1314</v>
+        <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>55</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="H26" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" s="7">
-        <v>0</v>
+        <v>1314</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>97</v>
@@ -2736,10 +2766,10 @@
         <v>1314</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>98</v>
@@ -2751,34 +2781,34 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>264</v>
+      </c>
+      <c r="D27" s="7">
+        <v>178935</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H27" s="7">
         <v>279</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>185614</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H27" s="7">
-        <v>264</v>
-      </c>
-      <c r="I27" s="7">
-        <v>178935</v>
-      </c>
       <c r="J27" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7">
         <v>543</v>
@@ -2787,13 +2817,13 @@
         <v>364549</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2804,10 +2834,10 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>266</v>
+        <v>229</v>
       </c>
       <c r="D28" s="7">
-        <v>174895</v>
+        <v>154030</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>99</v>
@@ -2819,10 +2849,10 @@
         <v>101</v>
       </c>
       <c r="H28" s="7">
-        <v>229</v>
+        <v>266</v>
       </c>
       <c r="I28" s="7">
-        <v>154030</v>
+        <v>174895</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>102</v>
@@ -2843,10 +2873,10 @@
         <v>105</v>
       </c>
       <c r="P28" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2855,34 +2885,34 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
+        <v>177</v>
+      </c>
+      <c r="D29" s="7">
+        <v>118906</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="H29" s="7">
         <v>178</v>
       </c>
-      <c r="D29" s="7">
+      <c r="I29" s="7">
         <v>120408</v>
       </c>
-      <c r="E29" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G29" s="7" t="s">
+      <c r="J29" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="H29" s="7">
-        <v>177</v>
-      </c>
-      <c r="I29" s="7">
-        <v>118906</v>
-      </c>
-      <c r="J29" s="7" t="s">
+      <c r="K29" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M29" s="7">
         <v>355</v>
@@ -2891,13 +2921,13 @@
         <v>239314</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2906,34 +2936,34 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
+        <v>19</v>
+      </c>
+      <c r="D30" s="7">
+        <v>13083</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H30" s="7">
         <v>12</v>
       </c>
-      <c r="D30" s="7">
+      <c r="I30" s="7">
         <v>7895</v>
       </c>
-      <c r="E30" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G30" s="7" t="s">
+      <c r="J30" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="H30" s="7">
-        <v>19</v>
-      </c>
-      <c r="I30" s="7">
-        <v>13083</v>
-      </c>
-      <c r="J30" s="7" t="s">
+      <c r="K30" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M30" s="7">
         <v>31</v>
@@ -2942,13 +2972,13 @@
         <v>20978</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2957,31 +2987,31 @@
         <v>14</v>
       </c>
       <c r="C31" s="7">
+        <v>7</v>
+      </c>
+      <c r="D31" s="7">
+        <v>4627</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H31" s="7">
         <v>5</v>
       </c>
-      <c r="D31" s="7">
+      <c r="I31" s="7">
         <v>3315</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G31" s="7" t="s">
+      <c r="J31" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="H31" s="7">
-        <v>7</v>
-      </c>
-      <c r="I31" s="7">
-        <v>4627</v>
-      </c>
-      <c r="J31" s="7" t="s">
+      <c r="K31" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="L31" s="7" t="s">
         <v>130</v>
@@ -2999,7 +3029,7 @@
         <v>132</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>133</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3008,31 +3038,31 @@
         <v>15</v>
       </c>
       <c r="C32" s="7">
+        <v>0</v>
+      </c>
+      <c r="D32" s="7">
+        <v>0</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="H32" s="7">
         <v>4</v>
       </c>
-      <c r="D32" s="7">
+      <c r="I32" s="7">
         <v>2582</v>
       </c>
-      <c r="E32" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F32" s="7" t="s">
+      <c r="J32" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="G32" s="7" t="s">
+      <c r="K32" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="H32" s="7">
-        <v>0</v>
-      </c>
-      <c r="I32" s="7">
-        <v>0</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>136</v>
@@ -3059,34 +3089,34 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>432</v>
+      </c>
+      <c r="D33" s="7">
+        <v>290646</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H33" s="7">
         <v>465</v>
       </c>
-      <c r="D33" s="7">
+      <c r="I33" s="7">
         <v>309095</v>
       </c>
-      <c r="E33" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H33" s="7">
-        <v>432</v>
-      </c>
-      <c r="I33" s="7">
-        <v>290646</v>
-      </c>
       <c r="J33" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M33" s="7">
         <v>897</v>
@@ -3095,13 +3125,13 @@
         <v>599741</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3126,7 +3156,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6E7ECED-45F5-4296-AA64-F1DC502A5A9E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E11DB307-DACE-4DD3-A0FB-12CA98C5E933}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3788,10 +3818,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="D16" s="7">
-        <v>80999</v>
+        <v>59782</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>142</v>
@@ -3803,19 +3833,19 @@
         <v>144</v>
       </c>
       <c r="H16" s="7">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="I16" s="7">
-        <v>59782</v>
+        <v>80999</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>145</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M16" s="7">
         <v>204</v>
@@ -3824,13 +3854,13 @@
         <v>140781</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3839,34 +3869,34 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
+        <v>113</v>
+      </c>
+      <c r="D17" s="7">
+        <v>80596</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="H17" s="7">
         <v>95</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>67069</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="J17" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="H17" s="7">
-        <v>113</v>
-      </c>
-      <c r="I17" s="7">
-        <v>80596</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="M17" s="7">
         <v>208</v>
@@ -3875,13 +3905,13 @@
         <v>147665</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3893,28 +3923,28 @@
         <v>9</v>
       </c>
       <c r="D18" s="7">
-        <v>5972</v>
+        <v>6600</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="H18" s="7">
         <v>9</v>
       </c>
       <c r="I18" s="7">
-        <v>6600</v>
+        <v>5972</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>164</v>
@@ -3929,10 +3959,10 @@
         <v>165</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>90</v>
+        <v>166</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3941,34 +3971,34 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
+        <v>2</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1287</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="H19" s="7">
         <v>1</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>564</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="H19" s="7">
-        <v>2</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1287</v>
-      </c>
       <c r="J19" s="7" t="s">
-        <v>168</v>
+        <v>94</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M19" s="7">
         <v>3</v>
@@ -3977,13 +4007,13 @@
         <v>1851</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3992,34 +4022,34 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
+        <v>2</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1024</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="H20" s="7">
         <v>1</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>823</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1024</v>
-      </c>
       <c r="J20" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="M20" s="7">
         <v>3</v>
@@ -4028,13 +4058,13 @@
         <v>1847</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4043,34 +4073,34 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>213</v>
+      </c>
+      <c r="D21" s="7">
+        <v>149289</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H21" s="7">
         <v>223</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>155427</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H21" s="7">
-        <v>213</v>
-      </c>
-      <c r="I21" s="7">
-        <v>149289</v>
-      </c>
       <c r="J21" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
         <v>436</v>
@@ -4079,51 +4109,51 @@
         <v>304716</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>77</v>
+      </c>
+      <c r="D22" s="7">
+        <v>54408</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="H22" s="7">
         <v>128</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>86414</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="H22" s="7">
-        <v>77</v>
-      </c>
-      <c r="I22" s="7">
-        <v>54408</v>
-      </c>
       <c r="J22" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="M22" s="7">
         <v>205</v>
@@ -4132,13 +4162,13 @@
         <v>140822</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4147,34 +4177,34 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
+        <v>128</v>
+      </c>
+      <c r="D23" s="7">
+        <v>89669</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="H23" s="7">
         <v>104</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>71666</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="H23" s="7">
-        <v>128</v>
-      </c>
-      <c r="I23" s="7">
-        <v>89669</v>
-      </c>
       <c r="J23" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="M23" s="7">
         <v>232</v>
@@ -4183,13 +4213,13 @@
         <v>161336</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4198,34 +4228,34 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
+        <v>20</v>
+      </c>
+      <c r="D24" s="7">
+        <v>14820</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="H24" s="7">
         <v>10</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>6344</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="J24" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F24" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="H24" s="7">
-        <v>20</v>
-      </c>
-      <c r="I24" s="7">
-        <v>14820</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>197</v>
-      </c>
       <c r="K24" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="M24" s="7">
         <v>30</v>
@@ -4234,13 +4264,13 @@
         <v>21165</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4249,34 +4279,34 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
+        <v>3</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1954</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="H25" s="7">
         <v>6</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>4246</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="H25" s="7">
-        <v>3</v>
-      </c>
-      <c r="I25" s="7">
-        <v>1954</v>
-      </c>
       <c r="J25" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="M25" s="7">
         <v>9</v>
@@ -4285,13 +4315,13 @@
         <v>6200</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>168</v>
+        <v>213</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4300,34 +4330,34 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
+        <v>1</v>
+      </c>
+      <c r="D26" s="7">
+        <v>656</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="H26" s="7">
         <v>4</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>2669</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="H26" s="7">
-        <v>1</v>
-      </c>
-      <c r="I26" s="7">
-        <v>656</v>
-      </c>
       <c r="J26" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>55</v>
+        <v>207</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="M26" s="7">
         <v>5</v>
@@ -4336,13 +4366,13 @@
         <v>3325</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4351,34 +4381,34 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>229</v>
+      </c>
+      <c r="D27" s="7">
+        <v>161508</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H27" s="7">
         <v>252</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>171339</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H27" s="7">
-        <v>229</v>
-      </c>
-      <c r="I27" s="7">
-        <v>161508</v>
-      </c>
       <c r="J27" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7">
         <v>481</v>
@@ -4387,13 +4417,13 @@
         <v>332847</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4404,34 +4434,34 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
+        <v>164</v>
+      </c>
+      <c r="D28" s="7">
+        <v>114190</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="H28" s="7">
         <v>245</v>
       </c>
-      <c r="D28" s="7">
+      <c r="I28" s="7">
         <v>167413</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="H28" s="7">
-        <v>164</v>
-      </c>
-      <c r="I28" s="7">
-        <v>114190</v>
-      </c>
       <c r="J28" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="M28" s="7">
         <v>409</v>
@@ -4440,13 +4470,13 @@
         <v>281602</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4455,34 +4485,34 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
+        <v>241</v>
+      </c>
+      <c r="D29" s="7">
+        <v>170266</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="H29" s="7">
         <v>199</v>
       </c>
-      <c r="D29" s="7">
+      <c r="I29" s="7">
         <v>138735</v>
       </c>
-      <c r="E29" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="H29" s="7">
-        <v>241</v>
-      </c>
-      <c r="I29" s="7">
-        <v>170266</v>
-      </c>
       <c r="J29" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="M29" s="7">
         <v>440</v>
@@ -4491,13 +4521,13 @@
         <v>309001</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4506,34 +4536,34 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
+        <v>29</v>
+      </c>
+      <c r="D30" s="7">
+        <v>21420</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="H30" s="7">
         <v>19</v>
       </c>
-      <c r="D30" s="7">
+      <c r="I30" s="7">
         <v>12316</v>
       </c>
-      <c r="E30" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="H30" s="7">
-        <v>29</v>
-      </c>
-      <c r="I30" s="7">
-        <v>21420</v>
-      </c>
       <c r="J30" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="M30" s="7">
         <v>48</v>
@@ -4542,13 +4572,13 @@
         <v>33736</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>44</v>
+        <v>244</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4557,34 +4587,34 @@
         <v>14</v>
       </c>
       <c r="C31" s="7">
+        <v>5</v>
+      </c>
+      <c r="D31" s="7">
+        <v>3241</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="H31" s="7">
         <v>7</v>
       </c>
-      <c r="D31" s="7">
+      <c r="I31" s="7">
         <v>4810</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="H31" s="7">
-        <v>5</v>
-      </c>
-      <c r="I31" s="7">
-        <v>3241</v>
-      </c>
       <c r="J31" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>213</v>
+        <v>250</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="M31" s="7">
         <v>12</v>
@@ -4593,13 +4623,13 @@
         <v>8051</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4608,34 +4638,34 @@
         <v>15</v>
       </c>
       <c r="C32" s="7">
+        <v>3</v>
+      </c>
+      <c r="D32" s="7">
+        <v>1680</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="H32" s="7">
         <v>5</v>
       </c>
-      <c r="D32" s="7">
+      <c r="I32" s="7">
         <v>3492</v>
       </c>
-      <c r="E32" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="H32" s="7">
-        <v>3</v>
-      </c>
-      <c r="I32" s="7">
-        <v>1680</v>
-      </c>
       <c r="J32" s="7" t="s">
-        <v>59</v>
+        <v>128</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>175</v>
+        <v>129</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>251</v>
+        <v>130</v>
       </c>
       <c r="M32" s="7">
         <v>8</v>
@@ -4644,13 +4674,13 @@
         <v>5172</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4659,34 +4689,34 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>442</v>
+      </c>
+      <c r="D33" s="7">
+        <v>310798</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H33" s="7">
         <v>475</v>
       </c>
-      <c r="D33" s="7">
+      <c r="I33" s="7">
         <v>326766</v>
       </c>
-      <c r="E33" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H33" s="7">
-        <v>442</v>
-      </c>
-      <c r="I33" s="7">
-        <v>310798</v>
-      </c>
       <c r="J33" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M33" s="7">
         <v>917</v>
@@ -4695,13 +4725,13 @@
         <v>637563</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -4726,7 +4756,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47F9AB4A-1AEE-40B9-9849-38632E80F389}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{692F486C-1768-4916-8115-A4390635DEDA}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4743,7 +4773,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5388,34 +5418,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>173</v>
+      </c>
+      <c r="D16" s="7">
+        <v>121786</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="H16" s="7">
         <v>161</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>115432</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="H16" s="7">
-        <v>173</v>
-      </c>
-      <c r="I16" s="7">
-        <v>121786</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="M16" s="7">
         <v>334</v>
@@ -5424,13 +5454,13 @@
         <v>237218</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5439,34 +5469,34 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
+        <v>77</v>
+      </c>
+      <c r="D17" s="7">
+        <v>53065</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="D17" s="7">
+      <c r="H17" s="7">
+        <v>78</v>
+      </c>
+      <c r="I17" s="7">
         <v>55613</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="H17" s="7">
-        <v>77</v>
-      </c>
-      <c r="I17" s="7">
-        <v>53065</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="M17" s="7">
         <v>155</v>
@@ -5475,13 +5505,13 @@
         <v>108678</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>271</v>
+        <v>75</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5490,34 +5520,34 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D18" s="7">
-        <v>5425</v>
+        <v>3298</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>275</v>
+        <v>253</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>276</v>
       </c>
       <c r="H18" s="7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I18" s="7">
-        <v>3298</v>
+        <v>5425</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>40</v>
+        <v>277</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>241</v>
+        <v>279</v>
       </c>
       <c r="M18" s="7">
         <v>13</v>
@@ -5526,13 +5556,13 @@
         <v>8723</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5541,34 +5571,34 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
+        <v>1</v>
+      </c>
+      <c r="D19" s="7">
+        <v>617</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="H19" s="7">
         <v>3</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>2142</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1</v>
-      </c>
-      <c r="I19" s="7">
-        <v>617</v>
-      </c>
       <c r="J19" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>55</v>
+        <v>286</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
@@ -5577,13 +5607,13 @@
         <v>2759</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5592,34 +5622,34 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D20" s="7">
-        <v>0</v>
+        <v>1409</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>55</v>
+        <v>291</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="H20" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>1409</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>289</v>
+        <v>54</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>55</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>244</v>
+        <v>293</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -5628,13 +5658,13 @@
         <v>1409</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5643,34 +5673,34 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>258</v>
+      </c>
+      <c r="D21" s="7">
+        <v>180175</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H21" s="7">
         <v>250</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>178611</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H21" s="7">
-        <v>258</v>
-      </c>
-      <c r="I21" s="7">
-        <v>180175</v>
-      </c>
       <c r="J21" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
         <v>508</v>
@@ -5679,51 +5709,51 @@
         <v>358786</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>127</v>
+      </c>
+      <c r="D22" s="7">
+        <v>90907</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="H22" s="7">
         <v>133</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>99238</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="H22" s="7">
-        <v>127</v>
-      </c>
-      <c r="I22" s="7">
-        <v>90907</v>
-      </c>
       <c r="J22" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="M22" s="7">
         <v>260</v>
@@ -5732,13 +5762,13 @@
         <v>190145</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5747,34 +5777,34 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
+        <v>94</v>
+      </c>
+      <c r="D23" s="7">
+        <v>64572</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="H23" s="7">
         <v>79</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>58060</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="H23" s="7">
-        <v>94</v>
-      </c>
-      <c r="I23" s="7">
-        <v>64572</v>
-      </c>
       <c r="J23" s="7" t="s">
-        <v>30</v>
+        <v>306</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="M23" s="7">
         <v>173</v>
@@ -5783,13 +5813,13 @@
         <v>122632</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>112</v>
+        <v>309</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5798,34 +5828,34 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D24" s="7">
+        <v>7310</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="H24" s="7">
+        <v>11</v>
+      </c>
+      <c r="I24" s="7">
         <v>8229</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="H24" s="7">
-        <v>10</v>
-      </c>
-      <c r="I24" s="7">
-        <v>7310</v>
-      </c>
       <c r="J24" s="7" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="M24" s="7">
         <v>21</v>
@@ -5834,13 +5864,13 @@
         <v>15538</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5849,34 +5879,34 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
+        <v>2</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1391</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="H25" s="7">
         <v>4</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>2996</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="F25" s="7" t="s">
+      <c r="J25" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="G25" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="H25" s="7">
-        <v>2</v>
-      </c>
-      <c r="I25" s="7">
-        <v>1391</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>55</v>
-      </c>
       <c r="L25" s="7" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="M25" s="7">
         <v>6</v>
@@ -5885,13 +5915,13 @@
         <v>4388</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5900,34 +5930,34 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
+        <v>1</v>
+      </c>
+      <c r="D26" s="7">
+        <v>626</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="H26" s="7">
         <v>3</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>2070</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="H26" s="7">
-        <v>1</v>
-      </c>
-      <c r="I26" s="7">
-        <v>626</v>
-      </c>
       <c r="J26" s="7" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>55</v>
+        <v>283</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>322</v>
+        <v>58</v>
       </c>
       <c r="M26" s="7">
         <v>4</v>
@@ -5936,13 +5966,13 @@
         <v>2696</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>134</v>
+        <v>329</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5951,34 +5981,34 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>234</v>
+      </c>
+      <c r="D27" s="7">
+        <v>164807</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H27" s="7">
         <v>230</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>170592</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H27" s="7">
-        <v>234</v>
-      </c>
-      <c r="I27" s="7">
-        <v>164807</v>
-      </c>
       <c r="J27" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7">
         <v>464</v>
@@ -5987,13 +6017,13 @@
         <v>335399</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6004,34 +6034,34 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
+        <v>300</v>
+      </c>
+      <c r="D28" s="7">
+        <v>212694</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="H28" s="7">
         <v>294</v>
       </c>
-      <c r="D28" s="7">
+      <c r="I28" s="7">
         <v>214670</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="H28" s="7">
-        <v>300</v>
-      </c>
-      <c r="I28" s="7">
-        <v>212694</v>
-      </c>
       <c r="J28" s="7" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="M28" s="7">
         <v>594</v>
@@ -6040,13 +6070,13 @@
         <v>427363</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>26</v>
+        <v>338</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6055,34 +6085,34 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
+        <v>171</v>
+      </c>
+      <c r="D29" s="7">
+        <v>117637</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="H29" s="7">
         <v>157</v>
       </c>
-      <c r="D29" s="7">
+      <c r="I29" s="7">
         <v>113672</v>
       </c>
-      <c r="E29" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="H29" s="7">
-        <v>171</v>
-      </c>
-      <c r="I29" s="7">
-        <v>117637</v>
-      </c>
       <c r="J29" s="7" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="M29" s="7">
         <v>328</v>
@@ -6091,13 +6121,13 @@
         <v>231309</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6106,34 +6136,34 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
+        <v>15</v>
+      </c>
+      <c r="D30" s="7">
+        <v>10608</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="H30" s="7">
         <v>19</v>
       </c>
-      <c r="D30" s="7">
+      <c r="I30" s="7">
         <v>13653</v>
       </c>
-      <c r="E30" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="H30" s="7">
-        <v>15</v>
-      </c>
-      <c r="I30" s="7">
-        <v>10608</v>
-      </c>
       <c r="J30" s="7" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="M30" s="7">
         <v>34</v>
@@ -6142,13 +6172,13 @@
         <v>24261</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6157,34 +6187,34 @@
         <v>14</v>
       </c>
       <c r="C31" s="7">
+        <v>3</v>
+      </c>
+      <c r="D31" s="7">
+        <v>2009</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="H31" s="7">
         <v>7</v>
       </c>
-      <c r="D31" s="7">
+      <c r="I31" s="7">
         <v>5138</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="H31" s="7">
-        <v>3</v>
-      </c>
-      <c r="I31" s="7">
-        <v>2009</v>
-      </c>
       <c r="J31" s="7" t="s">
-        <v>319</v>
+        <v>249</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="M31" s="7">
         <v>10</v>
@@ -6193,13 +6223,13 @@
         <v>7146</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6211,31 +6241,31 @@
         <v>3</v>
       </c>
       <c r="D32" s="7">
-        <v>2070</v>
+        <v>2035</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="H32" s="7">
         <v>3</v>
       </c>
       <c r="I32" s="7">
-        <v>2035</v>
+        <v>2070</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>351</v>
+        <v>367</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>45</v>
+        <v>368</v>
       </c>
       <c r="M32" s="7">
         <v>6</v>
@@ -6244,13 +6274,13 @@
         <v>4105</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>134</v>
+        <v>289</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>358</v>
+        <v>285</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6259,34 +6289,34 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>492</v>
+      </c>
+      <c r="D33" s="7">
+        <v>344983</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H33" s="7">
         <v>480</v>
       </c>
-      <c r="D33" s="7">
+      <c r="I33" s="7">
         <v>349203</v>
       </c>
-      <c r="E33" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H33" s="7">
-        <v>492</v>
-      </c>
-      <c r="I33" s="7">
-        <v>344983</v>
-      </c>
       <c r="J33" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M33" s="7">
         <v>972</v>
@@ -6295,13 +6325,13 @@
         <v>694185</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
